--- a/QuantLibXL/Data2/XLS/EUR_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR_Market.xlsx
@@ -147,7 +147,7 @@
     <definedName name="TriggerTOY6M">'General Settings'!$D$10</definedName>
     <definedName name="Volatility" localSheetId="8">Futures3M!$AM$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2551,99 +2551,99 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
         <stp/>
-        <stp>{9FCF9026-6369-4D33-ABAB-D25F46094D10}</stp>
+        <stp>{EE6D0D66-A93F-4615-BD8B-E08CD207E6F3}</stp>
+        <tr r="O5" s="23"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:55:45</v>
+        <stp/>
+        <stp>{9828C090-2D1D-4960-812B-99BE972675AB}</stp>
+        <tr r="J4" s="21"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:58:22</v>
+        <stp/>
+        <stp>{D84DB70C-F3ED-426A-AEBF-508AC8EBA203}</stp>
+        <tr r="S4" s="32"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:55:45</v>
+        <stp/>
+        <stp>{E916D5EE-4CFF-4C4F-9A43-8145CB00D989}</stp>
+        <tr r="O5" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:58:18</v>
+        <stp/>
+        <stp>{7A19CC1A-5BA2-416C-AD41-1CE27E8C0875}</stp>
+        <tr r="O6" s="24"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:55:43</v>
+        <stp/>
+        <stp>{F7A18855-73CA-402A-BE81-25FF24CF4840}</stp>
+        <tr r="H4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:57:19</v>
+        <stp/>
+        <stp>{A6DC8BAF-AE92-4427-8532-25B77D42E0CD}</stp>
+        <tr r="O4" s="28"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:57:37</v>
+        <stp/>
+        <stp>{5D4E13AA-060A-456E-96AC-210A48FA2A33}</stp>
+        <tr r="M4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:55:45</v>
+        <stp/>
+        <stp>{06D9F2F7-0F75-44EB-941A-981F104176E9}</stp>
+        <tr r="O49" s="28"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:55:43</v>
+        <stp/>
+        <stp>{032F4A3B-0902-4074-901B-43804BA13EAB}</stp>
+        <tr r="R7" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:57:30</v>
+        <stp/>
+        <stp>{EC4A53E5-0E87-44A8-9AF0-047CB140C9D7}</stp>
+        <tr r="O4" s="30"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:55:45</v>
+        <stp/>
+        <stp>{BABBFDBA-6E90-4B9D-804D-D75F0A3ABBD1}</stp>
+        <tr r="O4" s="29"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:55:45</v>
+        <stp/>
+        <stp>{871BD9BD-B747-4AE9-A486-382FAAB18FB8}</stp>
         <tr r="S4" s="18"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:57:25</v>
         <stp/>
-        <stp>{5F104723-1BE1-42A3-9FE5-5BE4A4A158EE}</stp>
-        <tr r="R7" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{AF6DF4E3-3755-4BBC-8391-9B2ACAC00914}</stp>
-        <tr r="H4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:41:21</v>
-        <stp/>
-        <stp>{1F9E0C86-6EF5-4D0F-A27E-2B15465DE97E}</stp>
-        <tr r="S4" s="32"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{516B8D80-0B0B-4114-BF4D-C814420DFB8A}</stp>
-        <tr r="J4" s="21"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{92AAA079-37A8-49E6-A4E3-E0D6DD0C2597}</stp>
+        <stp>{ECB02843-2998-4E26-B9AB-8D285189F1F3}</stp>
         <tr r="S4" s="31"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:41:31</v>
+        <v>Updated at 12:55:45</v>
         <stp/>
-        <stp>{951AC921-80E9-4585-98D2-019A0A586515}</stp>
-        <tr r="O6" s="24"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{E33C4564-96B7-4236-B1DD-0F04AD86FCB5}</stp>
+        <stp>{E567E954-47F9-421C-8F3B-A77295D881D3}</stp>
         <tr r="S4" s="19"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
         <stp/>
-        <stp>{C6A03414-612D-482C-B4C5-3FD54902B998}</stp>
-        <tr r="O4" s="30"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{16EB5878-E37A-4EA2-8B7A-F45B6A2B2CB0}</stp>
-        <tr r="O5" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:41:21</v>
-        <stp/>
-        <stp>{C63A1CC1-ADA9-4465-9CE8-FCB26A34278A}</stp>
-        <tr r="M4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{55F74BD7-A5E0-4FA4-A6EC-797CA1FAF5FB}</stp>
-        <tr r="O4" s="29"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:46</v>
-        <stp/>
-        <stp>{8F85D2AC-EA7B-4E12-868E-FCF482FCAC1A}</stp>
-        <tr r="O5" s="23"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{838FA555-8E2A-4C1F-9465-5C35C834231C}</stp>
-        <tr r="O49" s="28"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{1215B42A-3C5A-4480-B9A6-8C8DA9FA0CBC}</stp>
-        <tr r="O4" s="28"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:40:47</v>
-        <stp/>
-        <stp>{64F2E0B3-F807-4723-A94A-4B7E592C383D}</stp>
+        <stp>{0F4F9786-1F8C-4FD1-8CED-B945C9475EB3}</stp>
         <tr r="S4" s="17"/>
       </tp>
     </main>
@@ -3008,7 +3008,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="14">
-        <v>41851.47320601852</v>
+        <v>41851.537847222222</v>
       </c>
       <c r="K4" s="13"/>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="D7" s="422">
         <f>_xll.ohTrigger(Euribor!V8:V15)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="355"/>
       <c r="F7" s="349"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D8" s="432">
         <f>_xll.ohTrigger(ISERROR(Deposits!K10),ISERROR(Swaps1M!Y3),ISERROR(Futures1M!Z4))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8" s="355"/>
       <c r="F8" s="349"/>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="D9" s="422">
         <f>_xll.ohTrigger(ISERROR(Deposits!O13),ISERROR(FRA!V7:V12),ISERROR("Futures3M!Z5)"))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="355"/>
       <c r="F9" s="349"/>
@@ -3319,7 +3319,7 @@
         <v>224</v>
       </c>
       <c r="D23" s="437">
-        <v>41851.486840277779</v>
+        <v>41851.540439814817</v>
       </c>
       <c r="E23" s="347"/>
       <c r="F23" s="43"/>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="O5" s="308" t="str">
         <f>_xll.RData(O6:O9,P5:T5,,ReutersRtMode,,P6)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
       </c>
       <c r="P5" s="305" t="s">
         <v>195</v>
@@ -3675,10 +3675,10 @@
         <v>215</v>
       </c>
       <c r="Q6" s="234">
-        <v>0.28400000000000003</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="R6" s="234">
-        <v>0.33400000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="S6" s="234">
         <v>0</v>
@@ -3688,20 +3688,20 @@
       </c>
       <c r="U6" s="237">
         <f>100-_xll.qlMidSafe($Q6,$R6)</f>
-        <v>99.691000000000003</v>
+        <v>99.69</v>
       </c>
       <c r="V6" s="216"/>
       <c r="W6" s="295">
-        <v>99.691000000000003</v>
+        <v>99.69</v>
       </c>
       <c r="X6" s="216"/>
       <c r="Y6" s="294">
         <f t="array" ref="Y6:Y9">QuoteLive</f>
-        <v>99.691000000000003</v>
+        <v>99.69</v>
       </c>
       <c r="Z6" s="237">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6,Trigger)</f>
-        <v>-1.9999999999996021E-2</v>
+        <v>-2.1000000000000796E-2</v>
       </c>
       <c r="AA6" s="43"/>
       <c r="AB6" s="17"/>
@@ -3754,10 +3754,10 @@
         <v>215</v>
       </c>
       <c r="Q7" s="222">
-        <v>0.28000000000000003</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="R7" s="222">
-        <v>0.33</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="S7" s="222">
         <v>0</v>
@@ -3767,19 +3767,19 @@
       </c>
       <c r="U7" s="225">
         <f>100-_xll.qlMidSafe($Q7,$R7)</f>
-        <v>99.694999999999993</v>
+        <v>99.694000000000003</v>
       </c>
       <c r="V7" s="216"/>
       <c r="W7" s="293">
-        <v>99.694999999999993</v>
+        <v>99.694000000000003</v>
       </c>
       <c r="X7" s="216"/>
       <c r="Y7" s="287">
-        <v>99.694999999999993</v>
+        <v>99.694000000000003</v>
       </c>
       <c r="Z7" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y7,Trigger)</f>
-        <v>-2.1000000000000796E-2</v>
+        <v>-2.199999999999136E-2</v>
       </c>
       <c r="AA7" s="43"/>
       <c r="AB7" s="17"/>
@@ -3832,10 +3832,10 @@
         <v>215</v>
       </c>
       <c r="Q8" s="222">
-        <v>0.27800000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="R8" s="222">
-        <v>0.32800000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="S8" s="222">
         <v>0</v>
@@ -3845,19 +3845,19 @@
       </c>
       <c r="U8" s="225">
         <f>100-_xll.qlMidSafe($Q8,$R8)</f>
-        <v>99.697000000000003</v>
+        <v>99.695999999999998</v>
       </c>
       <c r="V8" s="216"/>
       <c r="W8" s="293">
-        <v>99.697000000000003</v>
+        <v>99.695999999999998</v>
       </c>
       <c r="X8" s="216"/>
       <c r="Y8" s="287">
-        <v>99.697000000000003</v>
+        <v>99.695999999999998</v>
       </c>
       <c r="Z8" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8,Trigger)</f>
-        <v>-2.199999999999136E-2</v>
+        <v>-2.2999999999996135E-2</v>
       </c>
       <c r="AA8" s="43"/>
       <c r="AB8" s="17"/>
@@ -3910,10 +3910,10 @@
         <v>215</v>
       </c>
       <c r="Q9" s="214">
-        <v>0.27500000000000002</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="R9" s="214">
-        <v>0.32500000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="S9" s="214">
         <v>0</v>
@@ -3923,19 +3923,19 @@
       </c>
       <c r="U9" s="218">
         <f>100-_xll.qlMidSafe($Q9,$R9)</f>
-        <v>99.7</v>
+        <v>99.698999999999998</v>
       </c>
       <c r="V9" s="216"/>
       <c r="W9" s="310">
-        <v>99.7</v>
+        <v>99.698999999999998</v>
       </c>
       <c r="X9" s="216"/>
       <c r="Y9" s="280">
-        <v>99.7</v>
+        <v>99.698999999999998</v>
       </c>
       <c r="Z9" s="218">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9,Trigger)</f>
-        <v>-2.1000000000000796E-2</v>
+        <v>-2.2000000000005571E-2</v>
       </c>
       <c r="AA9" s="43"/>
       <c r="AB9" s="17"/>
@@ -6974,7 +6974,7 @@
       <c r="P3" s="113"/>
       <c r="Q3" s="247">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R3" s="43"/>
       <c r="S3" s="17"/>
@@ -7002,7 +7002,7 @@
       <c r="G4" s="250"/>
       <c r="H4" s="300" t="str">
         <f>_xll.RData(H5,I4,,ReutersRtMode,,I5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:43</v>
       </c>
       <c r="I4" s="328" t="s">
         <v>191</v>
@@ -7050,7 +7050,7 @@
         <v>EU4Y6LATM=ICAP</v>
       </c>
       <c r="I5" s="326">
-        <v>66.44</v>
+        <v>65.320000000000007</v>
       </c>
       <c r="J5" s="319"/>
       <c r="K5" s="238" t="s">
@@ -7332,7 +7332,7 @@
       <c r="X3" s="113"/>
       <c r="Y3" s="247">
         <f>_xll.ohTrigger(Y5:Y37)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="193"/>
     </row>
@@ -7361,7 +7361,7 @@
       <c r="N4" s="170"/>
       <c r="O4" s="246" t="str">
         <f>_xll.RData(O5:O40,P4:S4,,ReutersRtMode,,P5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:57:19</v>
       </c>
       <c r="P4" s="276" t="s">
         <v>191</v>
@@ -8451,10 +8451,10 @@
         <v>EUREON15M=ICAP</v>
       </c>
       <c r="P20" s="222">
-        <v>3.2000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q20" s="222">
-        <v>8.2000000000000003E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R20" s="222">
         <v>0</v>
@@ -8464,19 +8464,19 @@
       </c>
       <c r="T20" s="225">
         <f t="shared" si="3"/>
-        <v>5.7000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="U20" s="216"/>
       <c r="V20" s="224">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="W20" s="216"/>
       <c r="X20" s="287">
-        <v>5.7000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="Y20" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F20,X20/100,Trigger)</f>
-        <v>-1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="193"/>
     </row>
@@ -8587,10 +8587,10 @@
         <v>EUREON21M=ICAP</v>
       </c>
       <c r="P22" s="222">
-        <v>0.04</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q22" s="222">
-        <v>0.09</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="R22" s="222">
         <v>0</v>
@@ -8600,15 +8600,15 @@
       </c>
       <c r="T22" s="225">
         <f t="shared" si="3"/>
-        <v>6.5000000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="U22" s="216"/>
       <c r="V22" s="224">
-        <v>6.5000000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="W22" s="216"/>
       <c r="X22" s="287">
-        <v>6.5000000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="Y22" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F22,X22/100,Trigger)</f>
@@ -8655,10 +8655,10 @@
         <v>EUREON2Y=ICAP</v>
       </c>
       <c r="P23" s="222">
-        <v>3.7999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="Q23" s="222">
-        <v>0.108</v>
+        <v>0.109</v>
       </c>
       <c r="R23" s="222">
         <v>0</v>
@@ -8668,15 +8668,15 @@
       </c>
       <c r="T23" s="225">
         <f t="shared" si="3"/>
-        <v>7.2999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="U23" s="216"/>
       <c r="V23" s="224">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="W23" s="216"/>
       <c r="X23" s="287">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="Y23" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F23,X23/100,Trigger)</f>
@@ -8723,10 +8723,10 @@
         <v>EUREON3Y=ICAP</v>
       </c>
       <c r="P24" s="222">
-        <v>9.2999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Q24" s="222">
-        <v>0.16300000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="R24" s="222">
         <v>0</v>
@@ -8736,15 +8736,15 @@
       </c>
       <c r="T24" s="225">
         <f t="shared" si="3"/>
-        <v>0.128</v>
+        <v>0.13</v>
       </c>
       <c r="U24" s="216"/>
       <c r="V24" s="224">
-        <v>0.128</v>
+        <v>0.13</v>
       </c>
       <c r="W24" s="216"/>
       <c r="X24" s="287">
-        <v>0.128</v>
+        <v>0.13</v>
       </c>
       <c r="Y24" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F24,X24/100,Trigger)</f>
@@ -8791,10 +8791,10 @@
         <v>EUREON4Y=ICAP</v>
       </c>
       <c r="P25" s="222">
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
       <c r="Q25" s="222">
-        <v>0.254</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="R25" s="222">
         <v>0</v>
@@ -8804,15 +8804,15 @@
       </c>
       <c r="T25" s="225">
         <f t="shared" si="3"/>
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="U25" s="216"/>
       <c r="V25" s="224">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="W25" s="216"/>
       <c r="X25" s="287">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="Y25" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
@@ -8859,10 +8859,10 @@
         <v>EUREON5Y=ICAP</v>
       </c>
       <c r="P26" s="222">
-        <v>0.30399999999999999</v>
+        <v>0.307</v>
       </c>
       <c r="Q26" s="222">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="R26" s="222">
         <v>0</v>
@@ -8872,15 +8872,15 @@
       </c>
       <c r="T26" s="225">
         <f t="shared" si="3"/>
-        <v>0.33899999999999997</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="U26" s="216"/>
       <c r="V26" s="224">
-        <v>0.33899999999999997</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="W26" s="216"/>
       <c r="X26" s="287">
-        <v>0.33899999999999997</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="Y26" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F26,X26/100,Trigger)</f>
@@ -8927,10 +8927,10 @@
         <v>EUREON6Y=ICAP</v>
       </c>
       <c r="P27" s="222">
-        <v>0.44400000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="Q27" s="222">
-        <v>0.51400000000000001</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="R27" s="222">
         <v>0</v>
@@ -8940,19 +8940,19 @@
       </c>
       <c r="T27" s="225">
         <f t="shared" si="3"/>
-        <v>0.47899999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="U27" s="216"/>
       <c r="V27" s="224">
-        <v>0.47899999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="W27" s="216"/>
       <c r="X27" s="287">
-        <v>0.47899999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="Y27" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F27,X27/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.000000000000046E-5</v>
       </c>
       <c r="Z27" s="193"/>
     </row>
@@ -8995,10 +8995,10 @@
         <v>EUREON7Y=ICAP</v>
       </c>
       <c r="P28" s="222">
-        <v>0.59399999999999997</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="Q28" s="222">
-        <v>0.66400000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="R28" s="222">
         <v>0</v>
@@ -9008,19 +9008,19 @@
       </c>
       <c r="T28" s="225">
         <f t="shared" si="3"/>
-        <v>0.629</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="U28" s="216"/>
       <c r="V28" s="224">
-        <v>0.629</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="W28" s="216"/>
       <c r="X28" s="287">
-        <v>0.629</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="Y28" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F28,X28/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="Z28" s="193"/>
     </row>
@@ -9063,10 +9063,10 @@
         <v>EUREON8Y=ICAP</v>
       </c>
       <c r="P29" s="222">
-        <v>0.74299999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="Q29" s="222">
-        <v>0.81300000000000006</v>
+        <v>0.81600000000000006</v>
       </c>
       <c r="R29" s="222">
         <v>0</v>
@@ -9076,19 +9076,19 @@
       </c>
       <c r="T29" s="225">
         <f t="shared" si="3"/>
-        <v>0.77800000000000002</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="U29" s="216"/>
       <c r="V29" s="224">
-        <v>0.77800000000000002</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="W29" s="216"/>
       <c r="X29" s="287">
-        <v>0.77800000000000002</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="Y29" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F29,X29/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.000000000000046E-5</v>
       </c>
       <c r="Z29" s="193"/>
     </row>
@@ -9131,10 +9131,10 @@
         <v>EUREON9Y=ICAP</v>
       </c>
       <c r="P30" s="222">
-        <v>0.88400000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="Q30" s="222">
-        <v>0.95400000000000007</v>
+        <v>0.95600000000000007</v>
       </c>
       <c r="R30" s="222">
         <v>0</v>
@@ -9144,19 +9144,19 @@
       </c>
       <c r="T30" s="225">
         <f t="shared" si="3"/>
-        <v>0.91900000000000004</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="U30" s="216"/>
       <c r="V30" s="224">
-        <v>0.91900000000000004</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="W30" s="216"/>
       <c r="X30" s="287">
-        <v>0.91900000000000004</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Y30" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F30,X30/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="Z30" s="193"/>
     </row>
@@ -9199,10 +9199,10 @@
         <v>EUREON10Y=ICAP</v>
       </c>
       <c r="P31" s="222">
-        <v>1.01</v>
+        <v>1.0130000000000001</v>
       </c>
       <c r="Q31" s="222">
-        <v>1.08</v>
+        <v>1.083</v>
       </c>
       <c r="R31" s="222">
         <v>0</v>
@@ -9212,19 +9212,19 @@
       </c>
       <c r="T31" s="225">
         <f t="shared" si="3"/>
-        <v>1.0449999999999999</v>
+        <v>1.048</v>
       </c>
       <c r="U31" s="216"/>
       <c r="V31" s="224">
-        <v>1.0449999999999999</v>
+        <v>1.048</v>
       </c>
       <c r="W31" s="216"/>
       <c r="X31" s="287">
-        <v>1.0449999999999999</v>
+        <v>1.048</v>
       </c>
       <c r="Y31" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="Z31" s="193"/>
     </row>
@@ -9267,10 +9267,10 @@
         <v>EUREON11Y=ICAP</v>
       </c>
       <c r="P32" s="222">
-        <v>1.1240000000000001</v>
+        <v>1.127</v>
       </c>
       <c r="Q32" s="222">
-        <v>1.194</v>
+        <v>1.1970000000000001</v>
       </c>
       <c r="R32" s="222">
         <v>0</v>
@@ -9280,19 +9280,19 @@
       </c>
       <c r="T32" s="225">
         <f t="shared" si="3"/>
-        <v>1.159</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="U32" s="216"/>
       <c r="V32" s="224">
-        <v>1.159</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="W32" s="216"/>
       <c r="X32" s="287">
-        <v>1.159</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="Y32" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F32,X32/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000001327E-5</v>
       </c>
       <c r="Z32" s="193"/>
     </row>
@@ -9335,10 +9335,10 @@
         <v>EUREON12Y=ICAP</v>
       </c>
       <c r="P33" s="222">
-        <v>1.2250000000000001</v>
+        <v>1.228</v>
       </c>
       <c r="Q33" s="222">
-        <v>1.2949999999999999</v>
+        <v>1.298</v>
       </c>
       <c r="R33" s="222">
         <v>0</v>
@@ -9348,19 +9348,19 @@
       </c>
       <c r="T33" s="225">
         <f t="shared" si="3"/>
-        <v>1.26</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="U33" s="216"/>
       <c r="V33" s="224">
-        <v>1.26</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="W33" s="216"/>
       <c r="X33" s="287">
-        <v>1.26</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="Y33" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F33,X33/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000001327E-5</v>
       </c>
       <c r="Z33" s="193"/>
     </row>
@@ -9403,10 +9403,10 @@
         <v>EUREON15Y=ICAP</v>
       </c>
       <c r="P34" s="222">
-        <v>1.464</v>
+        <v>1.466</v>
       </c>
       <c r="Q34" s="222">
-        <v>1.534</v>
+        <v>1.536</v>
       </c>
       <c r="R34" s="222">
         <v>0</v>
@@ -9416,19 +9416,19 @@
       </c>
       <c r="T34" s="225">
         <f t="shared" si="3"/>
-        <v>1.4990000000000001</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="U34" s="216"/>
       <c r="V34" s="224">
-        <v>1.4990000000000001</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="W34" s="216"/>
       <c r="X34" s="287">
-        <v>1.4990000000000001</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="Y34" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F34,X34/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000001327E-5</v>
       </c>
       <c r="Z34" s="193"/>
     </row>
@@ -9471,10 +9471,10 @@
         <v>EUREON20Y=ICAP</v>
       </c>
       <c r="P35" s="222">
-        <v>1.681</v>
+        <v>1.6830000000000001</v>
       </c>
       <c r="Q35" s="222">
-        <v>1.7510000000000001</v>
+        <v>1.7530000000000001</v>
       </c>
       <c r="R35" s="222">
         <v>0</v>
@@ -9484,19 +9484,19 @@
       </c>
       <c r="T35" s="225">
         <f t="shared" si="3"/>
-        <v>1.7160000000000002</v>
+        <v>1.718</v>
       </c>
       <c r="U35" s="216"/>
       <c r="V35" s="224">
-        <v>1.7160000000000002</v>
+        <v>1.718</v>
       </c>
       <c r="W35" s="216"/>
       <c r="X35" s="287">
-        <v>1.7160000000000002</v>
+        <v>1.718</v>
       </c>
       <c r="Y35" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999961231E-6</v>
       </c>
       <c r="Z35" s="193"/>
     </row>
@@ -9539,10 +9539,10 @@
         <v>EUREON25Y=ICAP</v>
       </c>
       <c r="P36" s="222">
-        <v>1.772</v>
+        <v>1.7730000000000001</v>
       </c>
       <c r="Q36" s="222">
-        <v>1.8420000000000001</v>
+        <v>1.843</v>
       </c>
       <c r="R36" s="222">
         <v>0</v>
@@ -9552,19 +9552,19 @@
       </c>
       <c r="T36" s="225">
         <f t="shared" si="3"/>
-        <v>1.8069999999999999</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="U36" s="216"/>
       <c r="V36" s="224">
-        <v>1.8069999999999999</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="W36" s="216"/>
       <c r="X36" s="287">
-        <v>1.8069999999999999</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="Y36" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F36,X36/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="Z36" s="193"/>
     </row>
@@ -9607,10 +9607,10 @@
         <v>EUREON30Y=ICAP</v>
       </c>
       <c r="P37" s="222">
-        <v>1.8080000000000001</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="Q37" s="222">
-        <v>1.8780000000000001</v>
+        <v>1.879</v>
       </c>
       <c r="R37" s="222">
         <v>0</v>
@@ -9620,19 +9620,19 @@
       </c>
       <c r="T37" s="225">
         <f t="shared" si="3"/>
-        <v>1.843</v>
+        <v>1.8439999999999999</v>
       </c>
       <c r="U37" s="216"/>
       <c r="V37" s="224">
-        <v>1.843</v>
+        <v>1.8439999999999999</v>
       </c>
       <c r="W37" s="216"/>
       <c r="X37" s="287">
-        <v>1.843</v>
+        <v>1.8439999999999999</v>
       </c>
       <c r="Y37" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F37,X37/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="Z37" s="193"/>
     </row>
@@ -9675,10 +9675,10 @@
         <v>EUREON40Y=ICAP</v>
       </c>
       <c r="P38" s="222">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="Q38" s="222">
-        <v>1.9390000000000001</v>
+        <v>1.94</v>
       </c>
       <c r="R38" s="222">
         <v>0</v>
@@ -9688,19 +9688,19 @@
       </c>
       <c r="T38" s="225">
         <f t="shared" si="3"/>
-        <v>1.9039999999999999</v>
+        <v>1.905</v>
       </c>
       <c r="U38" s="216"/>
       <c r="V38" s="224">
-        <v>1.9039999999999999</v>
+        <v>1.905</v>
       </c>
       <c r="W38" s="216"/>
       <c r="X38" s="287">
-        <v>1.9039999999999999</v>
+        <v>1.905</v>
       </c>
       <c r="Y38" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F38,X38/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="Z38" s="193"/>
     </row>
@@ -9743,10 +9743,10 @@
         <v>EUREON50Y=ICAP</v>
       </c>
       <c r="P39" s="222">
-        <v>1.887</v>
+        <v>1.8880000000000001</v>
       </c>
       <c r="Q39" s="222">
-        <v>1.9570000000000001</v>
+        <v>1.958</v>
       </c>
       <c r="R39" s="222">
         <v>0</v>
@@ -9756,19 +9756,19 @@
       </c>
       <c r="T39" s="225">
         <f t="shared" si="3"/>
-        <v>1.9220000000000002</v>
+        <v>1.923</v>
       </c>
       <c r="U39" s="216"/>
       <c r="V39" s="224">
-        <v>1.9220000000000002</v>
+        <v>1.923</v>
       </c>
       <c r="W39" s="216"/>
       <c r="X39" s="287">
-        <v>1.9220000000000002</v>
+        <v>1.923</v>
       </c>
       <c r="Y39" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="Z39" s="193"/>
     </row>
@@ -9811,10 +9811,10 @@
         <v>EUREON60Y=ICAP</v>
       </c>
       <c r="P40" s="222">
-        <v>1.9100000000000001</v>
+        <v>1.911</v>
       </c>
       <c r="Q40" s="222">
-        <v>1.98</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="R40" s="222">
         <v>0</v>
@@ -9824,19 +9824,19 @@
       </c>
       <c r="T40" s="225">
         <f t="shared" si="3"/>
-        <v>1.9450000000000001</v>
+        <v>1.9460000000000002</v>
       </c>
       <c r="U40" s="216"/>
       <c r="V40" s="224">
-        <v>1.9450000000000001</v>
+        <v>1.9460000000000002</v>
       </c>
       <c r="W40" s="216"/>
       <c r="X40" s="280">
-        <v>1.9450000000000001</v>
+        <v>1.9460000000000002</v>
       </c>
       <c r="Y40" s="213">
         <f>_xll.qlSimpleQuoteSetValue(F40,X40/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="Z40" s="193"/>
     </row>
@@ -10105,7 +10105,7 @@
       <c r="X48" s="113"/>
       <c r="Y48" s="247">
         <f>_xll.ohTrigger(Y50:Y55)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z48" s="193"/>
     </row>
@@ -10141,7 +10141,7 @@
       <c r="N49" s="170"/>
       <c r="O49" s="246" t="str">
         <f>_xll.RData(O50:O55,P49:S49,,ReutersRtMode,,P50)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
       </c>
       <c r="P49" s="276" t="s">
         <v>191</v>
@@ -10354,10 +10354,10 @@
         <v>EURECBOISM3=ICAP</v>
       </c>
       <c r="P52" s="222">
-        <v>3.5000000000000003E-2</v>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="Q52" s="222">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6000000000000007E-2</v>
       </c>
       <c r="R52" s="222" t="s">
         <v>215</v>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="T52" s="225">
         <f>_xll.qlMidSafe($P52,$Q52)</f>
-        <v>6.0000000000000005E-2</v>
+        <v>6.1000000000000006E-2</v>
       </c>
       <c r="U52" s="216"/>
       <c r="V52" s="224"/>
@@ -10424,10 +10424,10 @@
         <v>EURECBOISM4=ICAP</v>
       </c>
       <c r="P53" s="222">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q53" s="222">
-        <v>9.7000000000000003E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="R53" s="222" t="s">
         <v>215</v>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="T53" s="225">
         <f>_xll.qlMidSafe($P53,$Q53)</f>
-        <v>7.2000000000000008E-2</v>
+        <v>7.3000000000000009E-2</v>
       </c>
       <c r="U53" s="216"/>
       <c r="V53" s="224"/>
@@ -10494,10 +10494,10 @@
         <v>EURECBOISM5=ICAP</v>
       </c>
       <c r="P54" s="222">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="Q54" s="222">
-        <v>0.08</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="R54" s="222" t="s">
         <v>215</v>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="T54" s="225">
         <f>_xll.qlMidSafe($P54,$Q54)</f>
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="U54" s="216"/>
       <c r="V54" s="224"/>
@@ -11308,7 +11308,7 @@
       <c r="X3" s="113"/>
       <c r="Y3" s="247">
         <f>_xll.ohTrigger(Y5:Y15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="193"/>
     </row>
@@ -11337,7 +11337,7 @@
       <c r="N4" s="170"/>
       <c r="O4" s="246" t="str">
         <f>_xll.RData(O5:O15,P4:S4,,ReutersRtMode,,P5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
       </c>
       <c r="P4" s="276" t="s">
         <v>191</v>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="Y5" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.0000000000000079E-5</v>
       </c>
       <c r="Z5" s="193"/>
       <c r="AB5" s="253">
@@ -11481,10 +11481,10 @@
         <v>EUR3X1S=ICAP</v>
       </c>
       <c r="P6" s="262">
-        <v>7.3999999999999996E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q6" s="262">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="R6" s="262">
         <v>0</v>
@@ -11494,19 +11494,19 @@
       </c>
       <c r="T6" s="331">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="U6" s="216"/>
       <c r="V6" s="224">
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="W6" s="216"/>
       <c r="X6" s="287">
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Y6" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F6,X6/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000026E-5</v>
       </c>
       <c r="Z6" s="193"/>
       <c r="AB6" s="253">
@@ -11623,10 +11623,10 @@
         <v>EUR5X1S=ICAP</v>
       </c>
       <c r="P8" s="262">
-        <v>7.6999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="Q8" s="262">
-        <v>0.127</v>
+        <v>0.128</v>
       </c>
       <c r="R8" s="262">
         <v>0</v>
@@ -11636,19 +11636,19 @@
       </c>
       <c r="T8" s="331">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
-        <v>0.10200000000000001</v>
+        <v>0.10300000000000001</v>
       </c>
       <c r="U8" s="216"/>
       <c r="V8" s="224">
-        <v>0.10200000000000001</v>
+        <v>0.10300000000000001</v>
       </c>
       <c r="W8" s="216"/>
       <c r="X8" s="287">
-        <v>0.10200000000000001</v>
+        <v>0.10300000000000001</v>
       </c>
       <c r="Y8" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000000131E-5</v>
       </c>
       <c r="Z8" s="193"/>
       <c r="AB8" s="253">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="Y9" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
-        <v>0</v>
+        <v>6.0000000000000049E-5</v>
       </c>
       <c r="Z9" s="193"/>
       <c r="AB9" s="253">
@@ -11765,10 +11765,10 @@
         <v>EUR7X1S=ICAP</v>
       </c>
       <c r="P10" s="262">
-        <v>7.8E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Q10" s="262">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="R10" s="262">
         <v>0</v>
@@ -11778,19 +11778,19 @@
       </c>
       <c r="T10" s="331">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
-        <v>0.10300000000000001</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="U10" s="216"/>
       <c r="V10" s="224">
-        <v>0.10300000000000001</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="W10" s="216"/>
       <c r="X10" s="287">
-        <v>0.10300000000000001</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="Y10" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
-        <v>0</v>
+        <v>9.0000000000000128E-5</v>
       </c>
       <c r="Z10" s="193"/>
       <c r="AB10" s="253">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="Y11" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>0</v>
+        <v>8.0000000000000101E-5</v>
       </c>
       <c r="Z11" s="193"/>
       <c r="AB11" s="253">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="Y12" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
-        <v>0</v>
+        <v>8.0000000000000101E-5</v>
       </c>
       <c r="Z12" s="193"/>
       <c r="AB12" s="253">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="Y13" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
-        <v>0</v>
+        <v>6.0000000000000049E-5</v>
       </c>
       <c r="Z13" s="193"/>
       <c r="AB13" s="253">
@@ -12074,7 +12074,7 @@
       </c>
       <c r="Y14" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F14,X14/100,Trigger)</f>
-        <v>0</v>
+        <v>6.0000000000000049E-5</v>
       </c>
       <c r="Z14" s="193"/>
       <c r="AB14" s="253">
@@ -12120,10 +12120,10 @@
         <v>EUR12X1S=ICAP</v>
       </c>
       <c r="P15" s="267">
-        <v>7.2999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="Q15" s="267">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="R15" s="267">
         <v>0</v>
@@ -12133,19 +12133,19 @@
       </c>
       <c r="T15" s="330">
         <f>_xll.qlMidSafe($P15,$Q15)</f>
-        <v>9.8000000000000004E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="U15" s="216"/>
       <c r="V15" s="217">
-        <v>9.8000000000000004E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="W15" s="216"/>
       <c r="X15" s="280">
-        <v>9.8000000000000004E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Y15" s="213">
         <f>_xll.qlSimpleQuoteSetValue(F15,X15/100,Trigger)</f>
-        <v>-1.0000000000000026E-5</v>
+        <v>6.9999999999999967E-5</v>
       </c>
       <c r="Z15" s="193"/>
       <c r="AB15" s="253">
@@ -12298,7 +12298,7 @@
       <c r="X3" s="113"/>
       <c r="Y3" s="247">
         <f>_xll.ohTrigger(Y5:Y11)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="193"/>
     </row>
@@ -12327,7 +12327,7 @@
       <c r="N4" s="170"/>
       <c r="O4" s="246" t="str">
         <f>_xll.RData(O5:O11,P4:S4,,ReutersRtMode,,P5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:57:30</v>
       </c>
       <c r="P4" s="276" t="s">
         <v>191</v>
@@ -12399,10 +12399,10 @@
         <v>EUR1S12=ICAP</v>
       </c>
       <c r="P5" s="262">
-        <v>0.17200000000000001</v>
+        <v>0.17300000000000001</v>
       </c>
       <c r="Q5" s="262">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="R5" s="262">
         <v>0</v>
@@ -12412,20 +12412,20 @@
       </c>
       <c r="T5" s="331">
         <f>_xll.qlMidSafe($P5,$Q5)</f>
-        <v>0.19700000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="U5" s="216"/>
       <c r="V5" s="224">
-        <v>0.19700000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="W5" s="216"/>
       <c r="X5" s="287">
         <f t="array" ref="X5:X11">QuoteLive</f>
-        <v>0.19700000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="Y5" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
-        <v>1.7000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="193"/>
       <c r="AB5" s="253">
@@ -12471,10 +12471,10 @@
         <v>EUR2S12=ICAP</v>
       </c>
       <c r="P6" s="262">
-        <v>0.17100000000000001</v>
+        <v>0.17200000000000001</v>
       </c>
       <c r="Q6" s="262">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="R6" s="262">
         <v>0</v>
@@ -12484,19 +12484,19 @@
       </c>
       <c r="T6" s="331">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>0.19600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="U6" s="216"/>
       <c r="V6" s="224">
-        <v>0.19600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="W6" s="216"/>
       <c r="X6" s="287">
-        <v>0.19600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="Y6" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F6,X6/100,Trigger)</f>
-        <v>1.0999999999999985E-4</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="193"/>
       <c r="AB6" s="253">
@@ -12542,10 +12542,10 @@
         <v>EUR3S12=ICAP</v>
       </c>
       <c r="P7" s="262">
-        <v>0.18</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="Q7" s="262">
-        <v>0.23</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="R7" s="262">
         <v>0</v>
@@ -12555,19 +12555,19 @@
       </c>
       <c r="T7" s="331">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>0.20500000000000002</v>
+        <v>0.20600000000000002</v>
       </c>
       <c r="U7" s="216"/>
       <c r="V7" s="224">
-        <v>0.20500000000000002</v>
+        <v>0.20600000000000002</v>
       </c>
       <c r="W7" s="216"/>
       <c r="X7" s="287">
-        <v>0.20500000000000002</v>
+        <v>0.20600000000000002</v>
       </c>
       <c r="Y7" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F7,X7/100,Trigger)</f>
-        <v>6.0000000000000157E-5</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="193"/>
       <c r="AB7" s="253">
@@ -12613,10 +12613,10 @@
         <v>EUR4S12=ICAP</v>
       </c>
       <c r="P8" s="262">
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="Q8" s="262">
-        <v>0.25</v>
+        <v>0.251</v>
       </c>
       <c r="R8" s="262">
         <v>0</v>
@@ -12626,19 +12626,19 @@
       </c>
       <c r="T8" s="331">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
-        <v>0.22500000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="U8" s="216"/>
       <c r="V8" s="224">
-        <v>0.22500000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="W8" s="216"/>
       <c r="X8" s="287">
-        <v>0.22500000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="Y8" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>4.0000000000000105E-5</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="193"/>
       <c r="AB8" s="253">
@@ -12684,10 +12684,10 @@
         <v>EUR1S24=ICAP</v>
       </c>
       <c r="P9" s="262">
-        <v>0.20100000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="Q9" s="262">
-        <v>0.251</v>
+        <v>0.252</v>
       </c>
       <c r="R9" s="262">
         <v>0</v>
@@ -12697,19 +12697,19 @@
       </c>
       <c r="T9" s="331">
         <f>_xll.qlMidSafe($P9,$Q9)</f>
-        <v>0.22600000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="U9" s="216"/>
       <c r="V9" s="224">
-        <v>0.22600000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="W9" s="216"/>
       <c r="X9" s="287">
-        <v>0.22600000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="Y9" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
-        <v>8.9999999999999802E-5</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="193"/>
       <c r="AB9" s="253">
@@ -12755,10 +12755,10 @@
         <v>EUR2S24=ICAP</v>
       </c>
       <c r="P10" s="262">
-        <v>0.219</v>
+        <v>0.22</v>
       </c>
       <c r="Q10" s="262">
-        <v>0.26900000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="R10" s="262">
         <v>0</v>
@@ -12768,19 +12768,19 @@
       </c>
       <c r="T10" s="331">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
-        <v>0.24399999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="U10" s="216"/>
       <c r="V10" s="224">
-        <v>0.24399999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="W10" s="216"/>
       <c r="X10" s="287">
-        <v>0.24399999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="Y10" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
-        <v>2.0000000000000052E-5</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="193"/>
       <c r="AB10" s="253">
@@ -12826,10 +12826,10 @@
         <v>EUR1S36=ICAP</v>
       </c>
       <c r="P11" s="267">
-        <v>0.27300000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="Q11" s="267">
-        <v>0.32300000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="R11" s="267">
         <v>0</v>
@@ -12839,19 +12839,19 @@
       </c>
       <c r="T11" s="330">
         <f>_xll.qlMidSafe($P11,$Q11)</f>
-        <v>0.29800000000000004</v>
+        <v>0.29900000000000004</v>
       </c>
       <c r="U11" s="216"/>
       <c r="V11" s="217">
-        <v>0.29800000000000004</v>
+        <v>0.29900000000000004</v>
       </c>
       <c r="W11" s="216"/>
       <c r="X11" s="280">
-        <v>0.29800000000000004</v>
+        <v>0.29900000000000004</v>
       </c>
       <c r="Y11" s="213">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>-1.1999999999999945E-4</v>
+        <v>-1.0000000000000026E-5</v>
       </c>
       <c r="Z11" s="193"/>
       <c r="AB11" s="253">
@@ -13010,7 +13010,7 @@
       <c r="AB3" s="113"/>
       <c r="AC3" s="247">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="193"/>
       <c r="AE3" s="17"/>
@@ -13038,7 +13038,7 @@
       <c r="R4" s="170"/>
       <c r="S4" s="246" t="str">
         <f>_xll.RData(S5:S42,T4:W4,,ReutersRtMode,,T5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:57:25</v>
       </c>
       <c r="T4" s="276" t="s">
         <v>191</v>
@@ -13224,10 +13224,10 @@
         <v>EURAB3E1Y=ICAP</v>
       </c>
       <c r="T6" s="262">
-        <v>0.17799999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="U6" s="262">
-        <v>0.22800000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="V6" s="262">
         <v>0</v>
@@ -13237,15 +13237,15 @@
       </c>
       <c r="X6" s="225">
         <f>_xll.qlMidSafe($T6,$U6)</f>
-        <v>0.20300000000000001</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="Y6" s="216"/>
       <c r="Z6" s="224">
-        <v>0.20300000000000001</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="AA6" s="216"/>
       <c r="AB6" s="287">
-        <v>0.20300000000000001</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="AC6" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/100,Trigger)</f>
@@ -13319,10 +13319,10 @@
         <v>EURAB3E15M=ICAP</v>
       </c>
       <c r="T7" s="262">
-        <v>0.17699999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="U7" s="262">
-        <v>0.22700000000000001</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="V7" s="262">
         <v>0</v>
@@ -13332,15 +13332,15 @@
       </c>
       <c r="X7" s="225">
         <f>_xll.qlMidSafe($T7,$U7)</f>
-        <v>0.20200000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="Y7" s="216"/>
       <c r="Z7" s="224">
-        <v>0.20200000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AA7" s="216"/>
       <c r="AB7" s="287">
-        <v>0.20200000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="AC7" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F7,AB7/100,Trigger)</f>
@@ -13414,10 +13414,10 @@
         <v>EURAB3E18M=ICAP</v>
       </c>
       <c r="T8" s="262">
-        <v>0.18099999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="U8" s="262">
-        <v>0.23100000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="V8" s="262">
         <v>0</v>
@@ -13427,19 +13427,19 @@
       </c>
       <c r="X8" s="225">
         <f>_xll.qlMidSafe($T8,$U8)</f>
-        <v>0.20600000000000002</v>
+        <v>0.20700000000000002</v>
       </c>
       <c r="Y8" s="216"/>
       <c r="Z8" s="224">
-        <v>0.20600000000000002</v>
+        <v>0.20700000000000002</v>
       </c>
       <c r="AA8" s="216"/>
       <c r="AB8" s="287">
-        <v>0.20600000000000002</v>
+        <v>0.20700000000000002</v>
       </c>
       <c r="AC8" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F8,AB8/100,Trigger)</f>
-        <v>-1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="193"/>
       <c r="AE8" s="17"/>
@@ -13509,10 +13509,10 @@
         <v>EURAB3E21M=ICAP</v>
       </c>
       <c r="T9" s="262">
-        <v>0.188</v>
+        <v>0.189</v>
       </c>
       <c r="U9" s="262">
-        <v>0.23800000000000002</v>
+        <v>0.23900000000000002</v>
       </c>
       <c r="V9" s="262">
         <v>0</v>
@@ -13522,15 +13522,15 @@
       </c>
       <c r="X9" s="225">
         <f>_xll.qlMidSafe($T9,$U9)</f>
-        <v>0.21300000000000002</v>
+        <v>0.21400000000000002</v>
       </c>
       <c r="Y9" s="216"/>
       <c r="Z9" s="224">
-        <v>0.21300000000000002</v>
+        <v>0.21400000000000002</v>
       </c>
       <c r="AA9" s="216"/>
       <c r="AB9" s="287">
-        <v>0.21300000000000002</v>
+        <v>0.21400000000000002</v>
       </c>
       <c r="AC9" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/100,Trigger)</f>
@@ -13604,10 +13604,10 @@
         <v>EURAB3E2Y=ICAP</v>
       </c>
       <c r="T10" s="262">
-        <v>0.19700000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="U10" s="262">
-        <v>0.247</v>
+        <v>0.249</v>
       </c>
       <c r="V10" s="262">
         <v>0</v>
@@ -13617,15 +13617,15 @@
       </c>
       <c r="X10" s="225">
         <f>_xll.qlMidSafe($T10,$U10)</f>
-        <v>0.222</v>
+        <v>0.224</v>
       </c>
       <c r="Y10" s="216"/>
       <c r="Z10" s="224">
-        <v>0.222</v>
+        <v>0.224</v>
       </c>
       <c r="AA10" s="216"/>
       <c r="AB10" s="287">
-        <v>0.222</v>
+        <v>0.224</v>
       </c>
       <c r="AC10" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/100,Trigger)</f>
@@ -13690,10 +13690,10 @@
         <v>EURAB3E3Y=ICAP</v>
       </c>
       <c r="T11" s="262">
-        <v>0.26200000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="U11" s="262">
-        <v>0.312</v>
+        <v>0.314</v>
       </c>
       <c r="V11" s="262">
         <v>0</v>
@@ -13703,15 +13703,15 @@
       </c>
       <c r="X11" s="225">
         <f>_xll.qlMidSafe($T11,$U11)</f>
-        <v>0.28700000000000003</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="Y11" s="216"/>
       <c r="Z11" s="224">
-        <v>0.28700000000000003</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="AA11" s="216"/>
       <c r="AB11" s="287">
-        <v>0.28700000000000003</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="AC11" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
@@ -13770,10 +13770,10 @@
         <v>EURAB3E4Y=ICAP</v>
       </c>
       <c r="T12" s="262">
-        <v>0.36499999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="U12" s="262">
-        <v>0.41500000000000004</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="V12" s="262">
         <v>0</v>
@@ -13783,15 +13783,15 @@
       </c>
       <c r="X12" s="225">
         <f>_xll.qlMidSafe($T12,$U12)</f>
-        <v>0.39</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="Y12" s="216"/>
       <c r="Z12" s="224">
-        <v>0.39</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="AA12" s="216"/>
       <c r="AB12" s="287">
-        <v>0.39</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="AC12" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
@@ -13805,7 +13805,7 @@
       <c r="AI12" s="17"/>
       <c r="AJ12" s="253">
         <f t="shared" si="1"/>
-        <v>5.0000000000000044E-4</v>
+        <v>4.9999999999999936E-4</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
@@ -13850,10 +13850,10 @@
         <v>EURAB3E5Y=ICAP</v>
       </c>
       <c r="T13" s="262">
-        <v>0.49399999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="U13" s="262">
-        <v>0.54400000000000004</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="V13" s="262">
         <v>0</v>
@@ -13863,15 +13863,15 @@
       </c>
       <c r="X13" s="225">
         <f>_xll.qlMidSafe($T13,$U13)</f>
-        <v>0.51900000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="Y13" s="216"/>
       <c r="Z13" s="224">
-        <v>0.51900000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="AA13" s="216"/>
       <c r="AB13" s="287">
-        <v>0.51900000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="AC13" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
@@ -13930,10 +13930,10 @@
         <v>EURAB3E6Y=ICAP</v>
       </c>
       <c r="T14" s="262">
-        <v>0.64</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="U14" s="262">
-        <v>0.69000000000000006</v>
+        <v>0.69300000000000006</v>
       </c>
       <c r="V14" s="262">
         <v>0</v>
@@ -13943,19 +13943,19 @@
       </c>
       <c r="X14" s="225">
         <f>_xll.qlMidSafe($T14,$U14)</f>
-        <v>0.66500000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="Y14" s="216"/>
       <c r="Z14" s="224">
-        <v>0.66500000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="AA14" s="216"/>
       <c r="AB14" s="287">
-        <v>0.66500000000000004</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="AC14" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.000000000000046E-5</v>
       </c>
       <c r="AD14" s="193"/>
       <c r="AE14" s="17"/>
@@ -14010,10 +14010,10 @@
         <v>EURAB3E7Y=ICAP</v>
       </c>
       <c r="T15" s="262">
-        <v>0.79300000000000004</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="U15" s="262">
-        <v>0.84299999999999997</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="V15" s="262">
         <v>0</v>
@@ -14023,19 +14023,19 @@
       </c>
       <c r="X15" s="225">
         <f>_xll.qlMidSafe($T15,$U15)</f>
-        <v>0.81800000000000006</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="Y15" s="216"/>
       <c r="Z15" s="224">
-        <v>0.81800000000000006</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="AA15" s="216"/>
       <c r="AB15" s="287">
-        <v>0.81800000000000006</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="AC15" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD15" s="193"/>
       <c r="AE15" s="17"/>
@@ -14045,7 +14045,7 @@
       <c r="AI15" s="17"/>
       <c r="AJ15" s="253">
         <f t="shared" si="1"/>
-        <v>4.9999999999999828E-4</v>
+        <v>5.0000000000000044E-4</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -14090,10 +14090,10 @@
         <v>EURAB3E8Y=ICAP</v>
       </c>
       <c r="T16" s="262">
-        <v>0.94500000000000006</v>
+        <v>0.94800000000000006</v>
       </c>
       <c r="U16" s="262">
-        <v>0.995</v>
+        <v>0.998</v>
       </c>
       <c r="V16" s="262">
         <v>0</v>
@@ -14103,19 +14103,19 @@
       </c>
       <c r="X16" s="225">
         <f>_xll.qlMidSafe($T16,$U16)</f>
-        <v>0.97</v>
+        <v>0.97300000000000009</v>
       </c>
       <c r="Y16" s="216"/>
       <c r="Z16" s="224">
-        <v>0.97</v>
+        <v>0.97300000000000009</v>
       </c>
       <c r="AA16" s="216"/>
       <c r="AB16" s="287">
-        <v>0.97</v>
+        <v>0.97300000000000009</v>
       </c>
       <c r="AC16" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD16" s="193"/>
       <c r="AE16" s="17"/>
@@ -14125,7 +14125,7 @@
       <c r="AI16" s="17"/>
       <c r="AJ16" s="253">
         <f t="shared" si="1"/>
-        <v>5.0000000000000044E-4</v>
+        <v>4.9999999999999828E-4</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
@@ -14170,10 +14170,10 @@
         <v>EURAB3E9Y=ICAP</v>
       </c>
       <c r="T17" s="262">
-        <v>1.087</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="U17" s="262">
-        <v>1.137</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="V17" s="262">
         <v>0</v>
@@ -14183,19 +14183,19 @@
       </c>
       <c r="X17" s="225">
         <f>_xll.qlMidSafe($T17,$U17)</f>
-        <v>1.1120000000000001</v>
+        <v>1.1150000000000002</v>
       </c>
       <c r="Y17" s="216"/>
       <c r="Z17" s="224">
-        <v>1.1120000000000001</v>
+        <v>1.1150000000000002</v>
       </c>
       <c r="AA17" s="216"/>
       <c r="AB17" s="287">
-        <v>1.1120000000000001</v>
+        <v>1.1150000000000002</v>
       </c>
       <c r="AC17" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD17" s="193"/>
       <c r="AE17" s="17"/>
@@ -14250,10 +14250,10 @@
         <v>EURAB3E10Y=ICAP</v>
       </c>
       <c r="T18" s="262">
-        <v>1.2150000000000001</v>
+        <v>1.218</v>
       </c>
       <c r="U18" s="262">
-        <v>1.2650000000000001</v>
+        <v>1.268</v>
       </c>
       <c r="V18" s="262">
         <v>0</v>
@@ -14263,19 +14263,19 @@
       </c>
       <c r="X18" s="225">
         <f>_xll.qlMidSafe($T18,$U18)</f>
-        <v>1.2400000000000002</v>
+        <v>1.2429999999999999</v>
       </c>
       <c r="Y18" s="216"/>
       <c r="Z18" s="224">
-        <v>1.2400000000000002</v>
+        <v>1.2429999999999999</v>
       </c>
       <c r="AA18" s="216"/>
       <c r="AB18" s="287">
-        <v>1.2400000000000002</v>
+        <v>1.2429999999999999</v>
       </c>
       <c r="AC18" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="AD18" s="193"/>
       <c r="AE18" s="17"/>
@@ -14285,7 +14285,7 @@
       <c r="AI18" s="17"/>
       <c r="AJ18" s="253">
         <f t="shared" si="1"/>
-        <v>4.9999999999999828E-4</v>
+        <v>5.0000000000000261E-4</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.2">
@@ -14330,10 +14330,10 @@
         <v>EURAB3E11Y=ICAP</v>
       </c>
       <c r="T19" s="262">
-        <v>1.329</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="U19" s="262">
-        <v>1.379</v>
+        <v>1.3820000000000001</v>
       </c>
       <c r="V19" s="262">
         <v>0</v>
@@ -14343,19 +14343,19 @@
       </c>
       <c r="X19" s="225">
         <f>_xll.qlMidSafe($T19,$U19)</f>
-        <v>1.3540000000000001</v>
+        <v>1.3570000000000002</v>
       </c>
       <c r="Y19" s="216"/>
       <c r="Z19" s="224">
-        <v>1.3540000000000001</v>
+        <v>1.3570000000000002</v>
       </c>
       <c r="AA19" s="216"/>
       <c r="AB19" s="287">
-        <v>1.3540000000000001</v>
+        <v>1.3570000000000002</v>
       </c>
       <c r="AC19" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD19" s="193"/>
       <c r="AE19" s="17"/>
@@ -14410,10 +14410,10 @@
         <v>EURAB3E12Y=ICAP</v>
       </c>
       <c r="T20" s="262">
-        <v>1.43</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="U20" s="262">
-        <v>1.48</v>
+        <v>1.4830000000000001</v>
       </c>
       <c r="V20" s="262">
         <v>0</v>
@@ -14423,19 +14423,19 @@
       </c>
       <c r="X20" s="225">
         <f>_xll.qlMidSafe($T20,$U20)</f>
-        <v>1.4550000000000001</v>
+        <v>1.4580000000000002</v>
       </c>
       <c r="Y20" s="216"/>
       <c r="Z20" s="224">
-        <v>1.4550000000000001</v>
+        <v>1.4580000000000002</v>
       </c>
       <c r="AA20" s="216"/>
       <c r="AB20" s="287">
-        <v>1.4550000000000001</v>
+        <v>1.4580000000000002</v>
       </c>
       <c r="AC20" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999978578E-6</v>
       </c>
       <c r="AD20" s="193"/>
       <c r="AE20" s="17"/>
@@ -14650,10 +14650,10 @@
         <v>EURAB3E15Y=ICAP</v>
       </c>
       <c r="T23" s="262">
-        <v>1.6600000000000001</v>
+        <v>1.6620000000000001</v>
       </c>
       <c r="U23" s="262">
-        <v>1.71</v>
+        <v>1.712</v>
       </c>
       <c r="V23" s="262">
         <v>0</v>
@@ -14663,19 +14663,19 @@
       </c>
       <c r="X23" s="225">
         <f>_xll.qlMidSafe($T23,$U23)</f>
-        <v>1.6850000000000001</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="Y23" s="216"/>
       <c r="Z23" s="224">
-        <v>1.6850000000000001</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="AA23" s="216"/>
       <c r="AB23" s="287">
-        <v>1.6850000000000001</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="AC23" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="AD23" s="193"/>
       <c r="AE23" s="17"/>
@@ -15050,10 +15050,10 @@
         <v>EURAB3E20Y=ICAP</v>
       </c>
       <c r="T28" s="262">
-        <v>1.861</v>
+        <v>1.863</v>
       </c>
       <c r="U28" s="262">
-        <v>1.911</v>
+        <v>1.913</v>
       </c>
       <c r="V28" s="262">
         <v>0</v>
@@ -15063,19 +15063,19 @@
       </c>
       <c r="X28" s="225">
         <f>_xll.qlMidSafe($T28,$U28)</f>
-        <v>1.8860000000000001</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="Y28" s="216"/>
       <c r="Z28" s="224">
-        <v>1.8860000000000001</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="AA28" s="216"/>
       <c r="AB28" s="287">
-        <v>1.8860000000000001</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="AC28" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000006531E-5</v>
       </c>
       <c r="AD28" s="193"/>
       <c r="AE28" s="17"/>
@@ -15085,7 +15085,7 @@
       <c r="AI28" s="17"/>
       <c r="AJ28" s="253">
         <f t="shared" si="1"/>
-        <v>4.9999999999999828E-4</v>
+        <v>5.0000000000000261E-4</v>
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.2">
@@ -15450,10 +15450,10 @@
         <v>EURAB3E25Y=ICAP</v>
       </c>
       <c r="T33" s="262">
-        <v>1.9390000000000001</v>
+        <v>1.94</v>
       </c>
       <c r="U33" s="262">
-        <v>1.9890000000000001</v>
+        <v>1.99</v>
       </c>
       <c r="V33" s="262">
         <v>0</v>
@@ -15463,19 +15463,19 @@
       </c>
       <c r="X33" s="225">
         <f>_xll.qlMidSafe($T33,$U33)</f>
-        <v>1.964</v>
+        <v>1.9649999999999999</v>
       </c>
       <c r="Y33" s="216"/>
       <c r="Z33" s="224">
-        <v>1.964</v>
+        <v>1.9649999999999999</v>
       </c>
       <c r="AA33" s="216"/>
       <c r="AB33" s="287">
-        <v>1.964</v>
+        <v>1.9649999999999999</v>
       </c>
       <c r="AC33" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="AD33" s="193"/>
       <c r="AE33" s="17"/>
@@ -15850,10 +15850,10 @@
         <v>EURAB3E30Y=ICAP</v>
       </c>
       <c r="T38" s="262">
-        <v>1.964</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="U38" s="262">
-        <v>2.0140000000000002</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="V38" s="262">
         <v>0</v>
@@ -15863,19 +15863,19 @@
       </c>
       <c r="X38" s="225">
         <f>_xll.qlMidSafe($T38,$U38)</f>
-        <v>1.9890000000000001</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="Y38" s="216"/>
       <c r="Z38" s="224">
-        <v>1.9890000000000001</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="AA38" s="216"/>
       <c r="AB38" s="287">
-        <v>1.9890000000000001</v>
+        <v>1.9900000000000002</v>
       </c>
       <c r="AC38" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD38" s="193"/>
       <c r="AE38" s="17"/>
@@ -15885,7 +15885,7 @@
       <c r="AI38" s="17"/>
       <c r="AJ38" s="253">
         <f t="shared" si="1"/>
-        <v>5.0000000000000261E-4</v>
+        <v>4.9999999999999828E-4</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.2">
@@ -16010,10 +16010,10 @@
         <v>EURAB3E40Y=ICAP</v>
       </c>
       <c r="T40" s="262">
-        <v>2.0089999999999999</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="U40" s="262">
-        <v>2.0590000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="V40" s="262">
         <v>0</v>
@@ -16023,19 +16023,19 @@
       </c>
       <c r="X40" s="225">
         <f>_xll.qlMidSafe($T40,$U40)</f>
-        <v>2.0339999999999998</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="Y40" s="216"/>
       <c r="Z40" s="224">
-        <v>2.0339999999999998</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="AA40" s="216"/>
       <c r="AB40" s="287">
-        <v>2.0339999999999998</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="AC40" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD40" s="193"/>
       <c r="AE40" s="17"/>
@@ -16045,7 +16045,7 @@
       <c r="AI40" s="17"/>
       <c r="AJ40" s="253">
         <f t="shared" si="1"/>
-        <v>5.0000000000000706E-4</v>
+        <v>4.9999999999999828E-4</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.2">
@@ -16090,10 +16090,10 @@
         <v>EURAB3E50Y=ICAP</v>
       </c>
       <c r="T41" s="262">
-        <v>2.0169999999999999</v>
+        <v>2.0180000000000002</v>
       </c>
       <c r="U41" s="262">
-        <v>2.0670000000000002</v>
+        <v>2.0680000000000001</v>
       </c>
       <c r="V41" s="262">
         <v>0</v>
@@ -16103,19 +16103,19 @@
       </c>
       <c r="X41" s="225">
         <f>_xll.qlMidSafe($T41,$U41)</f>
-        <v>2.0419999999999998</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="Y41" s="216"/>
       <c r="Z41" s="224">
-        <v>2.0419999999999998</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="AA41" s="216"/>
       <c r="AB41" s="287">
-        <v>2.0419999999999998</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="AC41" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD41" s="193"/>
       <c r="AE41" s="17"/>
@@ -16125,7 +16125,7 @@
       <c r="AI41" s="17"/>
       <c r="AJ41" s="253">
         <f t="shared" si="1"/>
-        <v>5.0000000000000706E-4</v>
+        <v>4.9999999999999828E-4</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.2">
@@ -16170,10 +16170,10 @@
         <v>EURAB3E60Y=ICAP</v>
       </c>
       <c r="T42" s="262">
-        <v>2.0340000000000003</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="U42" s="262">
-        <v>2.0840000000000001</v>
+        <v>2.085</v>
       </c>
       <c r="V42" s="262">
         <v>0</v>
@@ -16183,19 +16183,19 @@
       </c>
       <c r="X42" s="225">
         <f>_xll.qlMidSafe($T42,$U42)</f>
-        <v>2.0590000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="Y42" s="216"/>
       <c r="Z42" s="217">
-        <v>2.0590000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="AA42" s="216"/>
       <c r="AB42" s="280">
-        <v>2.0590000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="AC42" s="213">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD42" s="193"/>
       <c r="AE42" s="17"/>
@@ -16363,7 +16363,7 @@
       <c r="AB3" s="113"/>
       <c r="AC3" s="247">
         <f>_xll.ohTrigger(AC5:AC42)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD3" s="193"/>
       <c r="AE3" s="17"/>
@@ -16391,7 +16391,7 @@
       <c r="R4" s="170"/>
       <c r="S4" s="246" t="str">
         <f>_xll.RData(S5:S42,T4:W4,,ReutersRtMode,,T5)</f>
-        <v>Updated at 11:41:21</v>
+        <v>Updated at 12:58:22</v>
       </c>
       <c r="T4" s="276" t="s">
         <v>191</v>
@@ -16577,10 +16577,10 @@
         <v>EURAB6E1Y=ICAP</v>
       </c>
       <c r="T6" s="262">
-        <v>0.28800000000000003</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="U6" s="262">
-        <v>0.32800000000000001</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="V6" s="262">
         <v>0</v>
@@ -16590,15 +16590,15 @@
       </c>
       <c r="X6" s="331">
         <f>_xll.qlMidSafe($T6,$U6)</f>
-        <v>0.30800000000000005</v>
+        <v>0.309</v>
       </c>
       <c r="Y6" s="216"/>
       <c r="Z6" s="224">
-        <v>0.30800000000000005</v>
+        <v>0.309</v>
       </c>
       <c r="AA6" s="216"/>
       <c r="AB6" s="287">
-        <v>0.30800000000000005</v>
+        <v>0.309</v>
       </c>
       <c r="AC6" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/100,Trigger)</f>
@@ -16618,7 +16618,7 @@
       <c r="AI6" s="17"/>
       <c r="AJ6" s="253">
         <f t="shared" si="1"/>
-        <v>3.9999999999999926E-4</v>
+        <v>4.0000000000000034E-4</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
@@ -16862,10 +16862,10 @@
         <v>EURAB6E21M=ICAP</v>
       </c>
       <c r="T9" s="262">
-        <v>0.28600000000000003</v>
+        <v>0.28700000000000003</v>
       </c>
       <c r="U9" s="262">
-        <v>0.33600000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="V9" s="262">
         <v>0</v>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="X9" s="331">
         <f>_xll.qlMidSafe($T9,$U9)</f>
-        <v>0.31100000000000005</v>
+        <v>0.31200000000000006</v>
       </c>
       <c r="Y9" s="216"/>
       <c r="Z9" s="224">
@@ -16883,11 +16883,11 @@
       </c>
       <c r="AA9" s="216"/>
       <c r="AB9" s="287">
-        <v>0.31100000000000005</v>
+        <v>0.31200000000000006</v>
       </c>
       <c r="AC9" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F9,AB9/100,Trigger)</f>
-        <v>-1.0000000000000026E-5</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="193"/>
       <c r="AE9" s="17"/>
@@ -16957,10 +16957,10 @@
         <v>EURAB6E2Y=ICAP</v>
       </c>
       <c r="T10" s="262">
-        <v>0.317</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="U10" s="262">
-        <v>0.35699999999999998</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="V10" s="262">
         <v>0</v>
@@ -16970,15 +16970,15 @@
       </c>
       <c r="X10" s="331">
         <f>_xll.qlMidSafe($T10,$U10)</f>
-        <v>0.33699999999999997</v>
+        <v>0.33899999999999997</v>
       </c>
       <c r="Y10" s="216"/>
       <c r="Z10" s="224">
-        <v>0.33699999999999997</v>
+        <v>0.33899999999999997</v>
       </c>
       <c r="AA10" s="216"/>
       <c r="AB10" s="287">
-        <v>0.33699999999999997</v>
+        <v>0.33899999999999997</v>
       </c>
       <c r="AC10" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/100,Trigger)</f>
@@ -17037,10 +17037,10 @@
         <v>EURAB6E3Y=ICAP</v>
       </c>
       <c r="T11" s="262">
-        <v>0.38800000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="U11" s="262">
-        <v>0.42799999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="V11" s="262">
         <v>0</v>
@@ -17050,15 +17050,15 @@
       </c>
       <c r="X11" s="331">
         <f>_xll.qlMidSafe($T11,$U11)</f>
-        <v>0.40800000000000003</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="Y11" s="216"/>
       <c r="Z11" s="224">
-        <v>0.40800000000000003</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="AA11" s="216"/>
       <c r="AB11" s="287">
-        <v>0.40800000000000003</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="AC11" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
@@ -17117,10 +17117,10 @@
         <v>EURAB6E4Y=ICAP</v>
       </c>
       <c r="T12" s="262">
-        <v>0.496</v>
+        <v>0.499</v>
       </c>
       <c r="U12" s="262">
-        <v>0.53600000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="V12" s="262">
         <v>0</v>
@@ -17130,15 +17130,15 @@
       </c>
       <c r="X12" s="331">
         <f>_xll.qlMidSafe($T12,$U12)</f>
-        <v>0.51600000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="Y12" s="216"/>
       <c r="Z12" s="224">
-        <v>0.51600000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="AA12" s="216"/>
       <c r="AB12" s="287">
-        <v>0.51600000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="AC12" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
@@ -17197,10 +17197,10 @@
         <v>EURAB6E5Y=ICAP</v>
       </c>
       <c r="T13" s="262">
-        <v>0.628</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="U13" s="262">
-        <v>0.66800000000000004</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="V13" s="262">
         <v>0</v>
@@ -17210,15 +17210,15 @@
       </c>
       <c r="X13" s="331">
         <f>_xll.qlMidSafe($T13,$U13)</f>
-        <v>0.64800000000000002</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="Y13" s="216"/>
       <c r="Z13" s="224">
-        <v>0.64800000000000002</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="AA13" s="216"/>
       <c r="AB13" s="287">
-        <v>0.64800000000000002</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="AC13" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
@@ -17277,10 +17277,10 @@
         <v>EURAB6E6Y=ICAP</v>
       </c>
       <c r="T14" s="262">
-        <v>0.77400000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="U14" s="262">
-        <v>0.81400000000000006</v>
+        <v>0.81700000000000006</v>
       </c>
       <c r="V14" s="262">
         <v>0</v>
@@ -17290,15 +17290,15 @@
       </c>
       <c r="X14" s="331">
         <f>_xll.qlMidSafe($T14,$U14)</f>
-        <v>0.79400000000000004</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="Y14" s="216"/>
       <c r="Z14" s="224">
-        <v>0.79400000000000004</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="AA14" s="216"/>
       <c r="AB14" s="287">
-        <v>0.79400000000000004</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="AC14" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
@@ -17357,10 +17357,10 @@
         <v>EURAB6E7Y=ICAP</v>
       </c>
       <c r="T15" s="262">
-        <v>0.92700000000000005</v>
+        <v>0.93</v>
       </c>
       <c r="U15" s="262">
-        <v>0.96699999999999997</v>
+        <v>0.97</v>
       </c>
       <c r="V15" s="262">
         <v>0</v>
@@ -17370,15 +17370,15 @@
       </c>
       <c r="X15" s="331">
         <f>_xll.qlMidSafe($T15,$U15)</f>
-        <v>0.94700000000000006</v>
+        <v>0.95</v>
       </c>
       <c r="Y15" s="216"/>
       <c r="Z15" s="224">
-        <v>0.94700000000000006</v>
+        <v>0.95</v>
       </c>
       <c r="AA15" s="216"/>
       <c r="AB15" s="287">
-        <v>0.94700000000000006</v>
+        <v>0.95</v>
       </c>
       <c r="AC15" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
@@ -17392,7 +17392,7 @@
       <c r="AI15" s="17"/>
       <c r="AJ15" s="253">
         <f t="shared" si="1"/>
-        <v>3.9999999999999812E-4</v>
+        <v>4.0000000000000034E-4</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
@@ -17437,10 +17437,10 @@
         <v>EURAB6E8Y=ICAP</v>
       </c>
       <c r="T16" s="262">
-        <v>1.077</v>
+        <v>1.08</v>
       </c>
       <c r="U16" s="262">
-        <v>1.117</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="V16" s="262">
         <v>0</v>
@@ -17450,15 +17450,15 @@
       </c>
       <c r="X16" s="331">
         <f>_xll.qlMidSafe($T16,$U16)</f>
-        <v>1.097</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y16" s="216"/>
       <c r="Z16" s="224">
-        <v>1.097</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA16" s="216"/>
       <c r="AB16" s="287">
-        <v>1.097</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC16" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
@@ -17517,10 +17517,10 @@
         <v>EURAB6E9Y=ICAP</v>
       </c>
       <c r="T17" s="262">
-        <v>1.2170000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="U17" s="262">
-        <v>1.2570000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="V17" s="262">
         <v>0</v>
@@ -17530,15 +17530,15 @@
       </c>
       <c r="X17" s="331">
         <f>_xll.qlMidSafe($T17,$U17)</f>
-        <v>1.2370000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="Y17" s="216"/>
       <c r="Z17" s="224">
-        <v>1.2370000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="AA17" s="216"/>
       <c r="AB17" s="287">
-        <v>1.2370000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="AC17" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
@@ -17597,10 +17597,10 @@
         <v>EURAB6E10Y=ICAP</v>
       </c>
       <c r="T18" s="262">
-        <v>1.3420000000000001</v>
+        <v>1.345</v>
       </c>
       <c r="U18" s="262">
-        <v>1.3820000000000001</v>
+        <v>1.385</v>
       </c>
       <c r="V18" s="262">
         <v>0</v>
@@ -17610,15 +17610,15 @@
       </c>
       <c r="X18" s="331">
         <f>_xll.qlMidSafe($T18,$U18)</f>
-        <v>1.3620000000000001</v>
+        <v>1.365</v>
       </c>
       <c r="Y18" s="216"/>
       <c r="Z18" s="224">
-        <v>1.3620000000000001</v>
+        <v>1.365</v>
       </c>
       <c r="AA18" s="216"/>
       <c r="AB18" s="287">
-        <v>1.3620000000000001</v>
+        <v>1.365</v>
       </c>
       <c r="AC18" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
@@ -17677,10 +17677,10 @@
         <v>EURAB6E11Y=ICAP</v>
       </c>
       <c r="T19" s="262">
-        <v>1.4530000000000001</v>
+        <v>1.456</v>
       </c>
       <c r="U19" s="262">
-        <v>1.4930000000000001</v>
+        <v>1.496</v>
       </c>
       <c r="V19" s="262">
         <v>0</v>
@@ -17690,15 +17690,15 @@
       </c>
       <c r="X19" s="331">
         <f>_xll.qlMidSafe($T19,$U19)</f>
-        <v>1.4730000000000001</v>
+        <v>1.476</v>
       </c>
       <c r="Y19" s="216"/>
       <c r="Z19" s="224">
-        <v>1.4730000000000001</v>
+        <v>1.476</v>
       </c>
       <c r="AA19" s="216"/>
       <c r="AB19" s="287">
-        <v>1.4730000000000001</v>
+        <v>1.476</v>
       </c>
       <c r="AC19" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F19,AB19/100,Trigger)</f>
@@ -17757,10 +17757,10 @@
         <v>EURAB6E12Y=ICAP</v>
       </c>
       <c r="T20" s="262">
-        <v>1.5489999999999999</v>
+        <v>1.552</v>
       </c>
       <c r="U20" s="262">
-        <v>1.589</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="V20" s="262">
         <v>0</v>
@@ -17770,15 +17770,15 @@
       </c>
       <c r="X20" s="331">
         <f>_xll.qlMidSafe($T20,$U20)</f>
-        <v>1.569</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="Y20" s="216"/>
       <c r="Z20" s="224">
-        <v>1.569</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="AA20" s="216"/>
       <c r="AB20" s="287">
-        <v>1.569</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="AC20" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
@@ -17837,10 +17837,10 @@
         <v>EURAB6E13Y=ICAP</v>
       </c>
       <c r="T21" s="262">
-        <v>1.6320000000000001</v>
+        <v>1.635</v>
       </c>
       <c r="U21" s="262">
-        <v>1.6719999999999999</v>
+        <v>1.675</v>
       </c>
       <c r="V21" s="262">
         <v>0</v>
@@ -17850,15 +17850,15 @@
       </c>
       <c r="X21" s="331">
         <f>_xll.qlMidSafe($T21,$U21)</f>
-        <v>1.6520000000000001</v>
+        <v>1.655</v>
       </c>
       <c r="Y21" s="216"/>
       <c r="Z21" s="224">
-        <v>1.6520000000000001</v>
+        <v>1.655</v>
       </c>
       <c r="AA21" s="216"/>
       <c r="AB21" s="287">
-        <v>1.6520000000000001</v>
+        <v>1.655</v>
       </c>
       <c r="AC21" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F21,AB21/100,Trigger)</f>
@@ -17872,7 +17872,7 @@
       <c r="AI21" s="17"/>
       <c r="AJ21" s="253">
         <f t="shared" si="1"/>
-        <v>3.999999999999959E-4</v>
+        <v>4.0000000000000034E-4</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
@@ -17917,10 +17917,10 @@
         <v>EURAB6E14Y=ICAP</v>
       </c>
       <c r="T22" s="262">
-        <v>1.7050000000000001</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="U22" s="262">
-        <v>1.7450000000000001</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="V22" s="262">
         <v>0</v>
@@ -17930,19 +17930,19 @@
       </c>
       <c r="X22" s="331">
         <f>_xll.qlMidSafe($T22,$U22)</f>
-        <v>1.7250000000000001</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="Y22" s="216"/>
       <c r="Z22" s="224">
-        <v>1.7250000000000001</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="AA22" s="216"/>
       <c r="AB22" s="287">
-        <v>1.7250000000000001</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="AC22" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F22,AB22/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD22" s="193"/>
       <c r="AE22" s="17"/>
@@ -17997,10 +17997,10 @@
         <v>EURAB6E15Y=ICAP</v>
       </c>
       <c r="T23" s="262">
-        <v>1.766</v>
+        <v>1.768</v>
       </c>
       <c r="U23" s="262">
-        <v>1.806</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="V23" s="262">
         <v>0</v>
@@ -18010,15 +18010,15 @@
       </c>
       <c r="X23" s="331">
         <f>_xll.qlMidSafe($T23,$U23)</f>
-        <v>1.786</v>
+        <v>1.788</v>
       </c>
       <c r="Y23" s="216"/>
       <c r="Z23" s="224">
-        <v>1.786</v>
+        <v>1.788</v>
       </c>
       <c r="AA23" s="216"/>
       <c r="AB23" s="287">
-        <v>1.786</v>
+        <v>1.788</v>
       </c>
       <c r="AC23" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
@@ -18077,10 +18077,10 @@
         <v>EURAB6E16Y=ICAP</v>
       </c>
       <c r="T24" s="262">
-        <v>1.8169999999999999</v>
+        <v>1.819</v>
       </c>
       <c r="U24" s="262">
-        <v>1.857</v>
+        <v>1.859</v>
       </c>
       <c r="V24" s="262">
         <v>0</v>
@@ -18090,19 +18090,19 @@
       </c>
       <c r="X24" s="331">
         <f>_xll.qlMidSafe($T24,$U24)</f>
-        <v>1.837</v>
+        <v>1.839</v>
       </c>
       <c r="Y24" s="216"/>
       <c r="Z24" s="224">
-        <v>1.837</v>
+        <v>1.839</v>
       </c>
       <c r="AA24" s="216"/>
       <c r="AB24" s="287">
-        <v>1.837</v>
+        <v>1.839</v>
       </c>
       <c r="AC24" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F24,AB24/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD24" s="193"/>
       <c r="AE24" s="17"/>
@@ -18157,10 +18157,10 @@
         <v>EURAB6E17Y=ICAP</v>
       </c>
       <c r="T25" s="262">
-        <v>1.86</v>
+        <v>1.8620000000000001</v>
       </c>
       <c r="U25" s="262">
-        <v>1.9000000000000001</v>
+        <v>1.9020000000000001</v>
       </c>
       <c r="V25" s="262">
         <v>0</v>
@@ -18170,19 +18170,19 @@
       </c>
       <c r="X25" s="331">
         <f>_xll.qlMidSafe($T25,$U25)</f>
-        <v>1.8800000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="Y25" s="216"/>
       <c r="Z25" s="224">
-        <v>1.8800000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="AA25" s="216"/>
       <c r="AB25" s="287">
-        <v>1.8800000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="AC25" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F25,AB25/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD25" s="193"/>
       <c r="AE25" s="17"/>
@@ -18237,10 +18237,10 @@
         <v>EURAB6E18Y=ICAP</v>
       </c>
       <c r="T26" s="262">
-        <v>1.8960000000000001</v>
+        <v>1.8980000000000001</v>
       </c>
       <c r="U26" s="262">
-        <v>1.9359999999999999</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="V26" s="262">
         <v>0</v>
@@ -18250,19 +18250,19 @@
       </c>
       <c r="X26" s="331">
         <f>_xll.qlMidSafe($T26,$U26)</f>
-        <v>1.9159999999999999</v>
+        <v>1.9180000000000001</v>
       </c>
       <c r="Y26" s="216"/>
       <c r="Z26" s="224">
-        <v>1.9159999999999999</v>
+        <v>1.9180000000000001</v>
       </c>
       <c r="AA26" s="216"/>
       <c r="AB26" s="287">
-        <v>1.9159999999999999</v>
+        <v>1.9180000000000001</v>
       </c>
       <c r="AC26" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F26,AB26/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999961231E-6</v>
       </c>
       <c r="AD26" s="193"/>
       <c r="AE26" s="17"/>
@@ -18272,7 +18272,7 @@
       <c r="AI26" s="17"/>
       <c r="AJ26" s="253">
         <f t="shared" si="1"/>
-        <v>4.0000000000000034E-4</v>
+        <v>3.999999999999959E-4</v>
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.2">
@@ -18317,10 +18317,10 @@
         <v>EURAB6E19Y=ICAP</v>
       </c>
       <c r="T27" s="262">
-        <v>1.9259999999999999</v>
+        <v>1.9279999999999999</v>
       </c>
       <c r="U27" s="262">
-        <v>1.966</v>
+        <v>1.968</v>
       </c>
       <c r="V27" s="262">
         <v>0</v>
@@ -18330,19 +18330,19 @@
       </c>
       <c r="X27" s="331">
         <f>_xll.qlMidSafe($T27,$U27)</f>
-        <v>1.946</v>
+        <v>1.948</v>
       </c>
       <c r="Y27" s="216"/>
       <c r="Z27" s="224">
-        <v>1.946</v>
+        <v>1.948</v>
       </c>
       <c r="AA27" s="216"/>
       <c r="AB27" s="287">
-        <v>1.946</v>
+        <v>1.948</v>
       </c>
       <c r="AC27" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F27,AB27/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD27" s="193"/>
       <c r="AE27" s="17"/>
@@ -18397,10 +18397,10 @@
         <v>EURAB6E20Y=ICAP</v>
       </c>
       <c r="T28" s="262">
-        <v>1.95</v>
+        <v>1.952</v>
       </c>
       <c r="U28" s="262">
-        <v>1.99</v>
+        <v>1.992</v>
       </c>
       <c r="V28" s="262">
         <v>0</v>
@@ -18410,19 +18410,19 @@
       </c>
       <c r="X28" s="331">
         <f>_xll.qlMidSafe($T28,$U28)</f>
-        <v>1.97</v>
+        <v>1.972</v>
       </c>
       <c r="Y28" s="216"/>
       <c r="Z28" s="224">
-        <v>1.97</v>
+        <v>1.972</v>
       </c>
       <c r="AA28" s="216"/>
       <c r="AB28" s="287">
-        <v>1.97</v>
+        <v>1.972</v>
       </c>
       <c r="AC28" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD28" s="193"/>
       <c r="AE28" s="17"/>
@@ -18477,10 +18477,10 @@
         <v>EURAB6E21Y=ICAP</v>
       </c>
       <c r="T29" s="262">
-        <v>1.97</v>
+        <v>1.972</v>
       </c>
       <c r="U29" s="262">
-        <v>2.0100000000000002</v>
+        <v>2.012</v>
       </c>
       <c r="V29" s="262">
         <v>0</v>
@@ -18490,19 +18490,19 @@
       </c>
       <c r="X29" s="331">
         <f>_xll.qlMidSafe($T29,$U29)</f>
-        <v>1.9900000000000002</v>
+        <v>1.992</v>
       </c>
       <c r="Y29" s="216"/>
       <c r="Z29" s="224">
-        <v>1.9900000000000002</v>
+        <v>1.992</v>
       </c>
       <c r="AA29" s="216"/>
       <c r="AB29" s="287">
-        <v>1.9900000000000002</v>
+        <v>1.992</v>
       </c>
       <c r="AC29" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F29,AB29/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD29" s="193"/>
       <c r="AE29" s="17"/>
@@ -18557,10 +18557,10 @@
         <v>EURAB6E22Y=ICAP</v>
       </c>
       <c r="T30" s="262">
-        <v>1.986</v>
+        <v>1.988</v>
       </c>
       <c r="U30" s="262">
-        <v>2.0260000000000002</v>
+        <v>2.028</v>
       </c>
       <c r="V30" s="262">
         <v>0</v>
@@ -18570,19 +18570,19 @@
       </c>
       <c r="X30" s="331">
         <f>_xll.qlMidSafe($T30,$U30)</f>
-        <v>2.0060000000000002</v>
+        <v>2.008</v>
       </c>
       <c r="Y30" s="216"/>
       <c r="Z30" s="224">
-        <v>2.0060000000000002</v>
+        <v>2.008</v>
       </c>
       <c r="AA30" s="216"/>
       <c r="AB30" s="287">
-        <v>2.0060000000000002</v>
+        <v>2.008</v>
       </c>
       <c r="AC30" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F30,AB30/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD30" s="193"/>
       <c r="AE30" s="17"/>
@@ -18637,10 +18637,10 @@
         <v>EURAB6E23Y=ICAP</v>
       </c>
       <c r="T31" s="262">
-        <v>1.9990000000000001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="U31" s="262">
-        <v>2.0390000000000001</v>
+        <v>2.0409999999999999</v>
       </c>
       <c r="V31" s="262">
         <v>0</v>
@@ -18650,19 +18650,19 @@
       </c>
       <c r="X31" s="331">
         <f>_xll.qlMidSafe($T31,$U31)</f>
-        <v>2.0190000000000001</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="Y31" s="216"/>
       <c r="Z31" s="224">
-        <v>2.0190000000000001</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="AA31" s="216"/>
       <c r="AB31" s="287">
-        <v>2.0190000000000001</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="AC31" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F31,AB31/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="AD31" s="193"/>
       <c r="AE31" s="17"/>
@@ -18717,10 +18717,10 @@
         <v>EURAB6E24Y=ICAP</v>
       </c>
       <c r="T32" s="262">
-        <v>2.0089999999999999</v>
+        <v>2.0110000000000001</v>
       </c>
       <c r="U32" s="262">
-        <v>2.0489999999999999</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="V32" s="262">
         <v>0</v>
@@ -18730,19 +18730,19 @@
       </c>
       <c r="X32" s="331">
         <f>_xll.qlMidSafe($T32,$U32)</f>
-        <v>2.0289999999999999</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="Y32" s="216"/>
       <c r="Z32" s="224">
-        <v>2.0289999999999999</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="AA32" s="216"/>
       <c r="AB32" s="287">
-        <v>2.0289999999999999</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="AC32" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F32,AB32/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD32" s="193"/>
       <c r="AE32" s="17"/>
@@ -18797,10 +18797,10 @@
         <v>EURAB6E25Y=ICAP</v>
       </c>
       <c r="T33" s="262">
-        <v>2.0169999999999999</v>
+        <v>2.0180000000000002</v>
       </c>
       <c r="U33" s="262">
-        <v>2.0569999999999999</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="V33" s="262">
         <v>0</v>
@@ -18810,19 +18810,19 @@
       </c>
       <c r="X33" s="331">
         <f>_xll.qlMidSafe($T33,$U33)</f>
-        <v>2.0369999999999999</v>
+        <v>2.0380000000000003</v>
       </c>
       <c r="Y33" s="216"/>
       <c r="Z33" s="224">
-        <v>2.0369999999999999</v>
+        <v>2.0380000000000003</v>
       </c>
       <c r="AA33" s="216"/>
       <c r="AB33" s="287">
-        <v>2.0369999999999999</v>
+        <v>2.0380000000000003</v>
       </c>
       <c r="AC33" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD33" s="193"/>
       <c r="AE33" s="17"/>
@@ -18832,7 +18832,7 @@
       <c r="AI33" s="17"/>
       <c r="AJ33" s="253">
         <f t="shared" si="1"/>
-        <v>4.0000000000000034E-4</v>
+        <v>3.9999999999999145E-4</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.2">
@@ -18877,10 +18877,10 @@
         <v>EURAB6E26Y=ICAP</v>
       </c>
       <c r="T34" s="262">
-        <v>2.0230000000000001</v>
+        <v>2.024</v>
       </c>
       <c r="U34" s="262">
-        <v>2.0630000000000002</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="V34" s="262">
         <v>0</v>
@@ -18890,19 +18890,19 @@
       </c>
       <c r="X34" s="331">
         <f>_xll.qlMidSafe($T34,$U34)</f>
-        <v>2.0430000000000001</v>
+        <v>2.044</v>
       </c>
       <c r="Y34" s="216"/>
       <c r="Z34" s="224">
-        <v>2.0430000000000001</v>
+        <v>2.044</v>
       </c>
       <c r="AA34" s="216"/>
       <c r="AB34" s="287">
-        <v>2.0430000000000001</v>
+        <v>2.044</v>
       </c>
       <c r="AC34" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F34,AB34/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD34" s="193"/>
       <c r="AE34" s="17"/>
@@ -18957,10 +18957,10 @@
         <v>EURAB6E27Y=ICAP</v>
       </c>
       <c r="T35" s="262">
-        <v>2.0270000000000001</v>
+        <v>2.028</v>
       </c>
       <c r="U35" s="262">
-        <v>2.0670000000000002</v>
+        <v>2.0680000000000001</v>
       </c>
       <c r="V35" s="262">
         <v>0</v>
@@ -18970,19 +18970,19 @@
       </c>
       <c r="X35" s="331">
         <f>_xll.qlMidSafe($T35,$U35)</f>
-        <v>2.0470000000000002</v>
+        <v>2.048</v>
       </c>
       <c r="Y35" s="216"/>
       <c r="Z35" s="224">
-        <v>2.0470000000000002</v>
+        <v>2.048</v>
       </c>
       <c r="AA35" s="216"/>
       <c r="AB35" s="287">
-        <v>2.0470000000000002</v>
+        <v>2.048</v>
       </c>
       <c r="AC35" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F35,AB35/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999961231E-6</v>
       </c>
       <c r="AD35" s="193"/>
       <c r="AE35" s="17"/>
@@ -19037,10 +19037,10 @@
         <v>EURAB6E28Y=ICAP</v>
       </c>
       <c r="T36" s="262">
-        <v>2.0300000000000002</v>
+        <v>2.0310000000000001</v>
       </c>
       <c r="U36" s="262">
-        <v>2.0699999999999998</v>
+        <v>2.0710000000000002</v>
       </c>
       <c r="V36" s="262">
         <v>0</v>
@@ -19050,19 +19050,19 @@
       </c>
       <c r="X36" s="331">
         <f>_xll.qlMidSafe($T36,$U36)</f>
-        <v>2.0499999999999998</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="Y36" s="216"/>
       <c r="Z36" s="224">
-        <v>2.0499999999999998</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="AA36" s="216"/>
       <c r="AB36" s="287">
-        <v>2.0499999999999998</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="AC36" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F36,AB36/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD36" s="193"/>
       <c r="AE36" s="17"/>
@@ -19117,10 +19117,10 @@
         <v>EURAB6E29Y=ICAP</v>
       </c>
       <c r="T37" s="262">
-        <v>2.032</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="U37" s="262">
-        <v>2.0720000000000001</v>
+        <v>2.073</v>
       </c>
       <c r="V37" s="262">
         <v>0</v>
@@ -19130,19 +19130,19 @@
       </c>
       <c r="X37" s="331">
         <f>_xll.qlMidSafe($T37,$U37)</f>
-        <v>2.052</v>
+        <v>2.0529999999999999</v>
       </c>
       <c r="Y37" s="216"/>
       <c r="Z37" s="224">
-        <v>2.052</v>
+        <v>2.0529999999999999</v>
       </c>
       <c r="AA37" s="216"/>
       <c r="AB37" s="287">
-        <v>2.052</v>
+        <v>2.0529999999999999</v>
       </c>
       <c r="AC37" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F37,AB37/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="AD37" s="193"/>
       <c r="AE37" s="17"/>
@@ -19197,10 +19197,10 @@
         <v>EURAB6E30Y=ICAP</v>
       </c>
       <c r="T38" s="262">
-        <v>2.0350000000000001</v>
+        <v>2.036</v>
       </c>
       <c r="U38" s="262">
-        <v>2.0750000000000002</v>
+        <v>2.0760000000000001</v>
       </c>
       <c r="V38" s="262">
         <v>0</v>
@@ -19210,19 +19210,19 @@
       </c>
       <c r="X38" s="331">
         <f>_xll.qlMidSafe($T38,$U38)</f>
-        <v>2.0550000000000002</v>
+        <v>2.056</v>
       </c>
       <c r="Y38" s="216"/>
       <c r="Z38" s="224">
-        <v>2.0550000000000002</v>
+        <v>2.056</v>
       </c>
       <c r="AA38" s="216"/>
       <c r="AB38" s="287">
-        <v>2.0550000000000002</v>
+        <v>2.056</v>
       </c>
       <c r="AC38" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999961231E-6</v>
       </c>
       <c r="AD38" s="193"/>
       <c r="AE38" s="17"/>
@@ -19277,10 +19277,10 @@
         <v>EURAB6E35Y=ICAP</v>
       </c>
       <c r="T39" s="262">
-        <v>2.0529999999999999</v>
+        <v>2.0539999999999998</v>
       </c>
       <c r="U39" s="262">
-        <v>2.093</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="V39" s="262">
         <v>0</v>
@@ -19290,19 +19290,19 @@
       </c>
       <c r="X39" s="331">
         <f>_xll.qlMidSafe($T39,$U39)</f>
-        <v>2.073</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="Y39" s="216"/>
       <c r="Z39" s="224">
-        <v>2.073</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="AA39" s="216"/>
       <c r="AB39" s="287">
-        <v>2.073</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="AC39" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F39,AB39/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="AD39" s="193"/>
       <c r="AE39" s="17"/>
@@ -19357,10 +19357,10 @@
         <v>EURAB6E40Y=ICAP</v>
       </c>
       <c r="T40" s="262">
-        <v>2.0699999999999998</v>
+        <v>2.0710000000000002</v>
       </c>
       <c r="U40" s="262">
-        <v>2.11</v>
+        <v>2.1110000000000002</v>
       </c>
       <c r="V40" s="262">
         <v>0</v>
@@ -19370,19 +19370,19 @@
       </c>
       <c r="X40" s="331">
         <f>_xll.qlMidSafe($T40,$U40)</f>
-        <v>2.09</v>
+        <v>2.0910000000000002</v>
       </c>
       <c r="Y40" s="216"/>
       <c r="Z40" s="224">
-        <v>2.09</v>
+        <v>2.0910000000000002</v>
       </c>
       <c r="AA40" s="216"/>
       <c r="AB40" s="287">
-        <v>2.09</v>
+        <v>2.0910000000000002</v>
       </c>
       <c r="AC40" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD40" s="193"/>
       <c r="AE40" s="17"/>
@@ -19437,10 +19437,10 @@
         <v>EURAB6E50Y=ICAP</v>
       </c>
       <c r="T41" s="262">
-        <v>2.073</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="U41" s="262">
-        <v>2.113</v>
+        <v>2.1139999999999999</v>
       </c>
       <c r="V41" s="262">
         <v>0</v>
@@ -19450,19 +19450,19 @@
       </c>
       <c r="X41" s="331">
         <f>_xll.qlMidSafe($T41,$U41)</f>
-        <v>2.093</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="Y41" s="216"/>
       <c r="Z41" s="224">
-        <v>2.093</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="AA41" s="216"/>
       <c r="AB41" s="287">
-        <v>2.093</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="AC41" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F41,AB41/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000003062E-5</v>
       </c>
       <c r="AD41" s="193"/>
       <c r="AE41" s="17"/>
@@ -19517,10 +19517,10 @@
         <v>EURAB6E60Y=ICAP</v>
       </c>
       <c r="T42" s="262">
-        <v>2.0859999999999999</v>
+        <v>2.0870000000000002</v>
       </c>
       <c r="U42" s="262">
-        <v>2.1259999999999999</v>
+        <v>2.1270000000000002</v>
       </c>
       <c r="V42" s="262">
         <v>0</v>
@@ -19530,19 +19530,19 @@
       </c>
       <c r="X42" s="331">
         <f>_xll.qlMidSafe($T42,$U42)</f>
-        <v>2.1059999999999999</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="Y42" s="216"/>
       <c r="Z42" s="217">
-        <v>2.1059999999999999</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="AA42" s="216"/>
       <c r="AB42" s="280">
-        <v>2.1059999999999999</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="AC42" s="213">
         <f>_xll.qlSimpleQuoteSetValue(F42,AB42/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="AD42" s="193"/>
       <c r="AE42" s="17"/>
@@ -23117,7 +23117,7 @@
       <c r="Z6" s="410"/>
       <c r="AA6" s="411">
         <f>MAX(AC8:AC15)</f>
-        <v>9.4501775169722512E-4</v>
+        <v>1.0489587435441499E-3</v>
       </c>
       <c r="AB6" s="410"/>
       <c r="AC6" s="410"/>
@@ -23171,7 +23171,7 @@
       </c>
       <c r="R7" s="406" t="str">
         <f>_xll.RData(R8:R15,S7:T7,,,,S8)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:43</v>
       </c>
       <c r="S7" s="406" t="s">
         <v>239</v>
@@ -23276,7 +23276,7 @@
       </c>
       <c r="Y8" s="398">
         <f>_xll.qlIndexFixing($X8,$S8,TRUE,$U8)</f>
-        <v>2.1999999793338124E-4</v>
+        <v>2.1999995889032675E-4</v>
       </c>
       <c r="Z8" s="398">
         <f>IF($V8,_xll.qlIndexFixing($X8,$S8,FALSE,$U8),"-")</f>
@@ -23284,15 +23284,15 @@
       </c>
       <c r="AA8" s="398">
         <f t="shared" ref="AA8:AA15" si="3">Y8-Z8</f>
-        <v>-2.7000000206661874E-4</v>
+        <v>-2.7000004110967323E-4</v>
       </c>
       <c r="AB8" s="397">
         <f>_xll.qlIndexFixing($X8,$S8,TRUE,$Z8)</f>
-        <v>2.1999999793338124E-4</v>
+        <v>2.1999995889032675E-4</v>
       </c>
       <c r="AC8" s="396">
         <f t="shared" ref="AC8:AC15" si="4">IF(ISERROR(AA8),0,ABS(AA8))</f>
-        <v>2.7000000206661874E-4</v>
+        <v>2.7000004110967323E-4</v>
       </c>
       <c r="AD8" s="385"/>
       <c r="AE8" s="377"/>
@@ -23368,7 +23368,7 @@
       </c>
       <c r="Y9" s="398">
         <f>_xll.qlIndexFixing($X9,$S9,TRUE,$U9)</f>
-        <v>2.8000000003152489E-4</v>
+        <v>2.7999997598219091E-4</v>
       </c>
       <c r="Z9" s="398">
         <f>IF($V9,_xll.qlIndexFixing($X9,$S9,FALSE,$U9),"-")</f>
@@ -23376,15 +23376,15 @@
       </c>
       <c r="AA9" s="398">
         <f t="shared" si="3"/>
-        <v>-3.0999999996847514E-4</v>
+        <v>-3.1000002401780912E-4</v>
       </c>
       <c r="AB9" s="397">
         <f>_xll.qlIndexFixing($X9,$S9,TRUE,$Z9)</f>
-        <v>2.8000000003152489E-4</v>
+        <v>2.7999997598219091E-4</v>
       </c>
       <c r="AC9" s="396">
         <f t="shared" si="4"/>
-        <v>3.0999999996847514E-4</v>
+        <v>3.1000002401780912E-4</v>
       </c>
       <c r="AD9" s="385"/>
       <c r="AE9" s="377"/>
@@ -23458,25 +23458,25 @@
         <f t="shared" si="5"/>
         <v>Euribor1M#0000</v>
       </c>
-      <c r="Y10" s="398">
+      <c r="Y10" s="398" t="e">
         <f>_xll.qlIndexFixing($X10,$S10,TRUE,$U10)</f>
-        <v>1.1019999972292352E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z10" s="398">
         <f>IF($V10,_xll.qlIndexFixing($X10,$S10,FALSE,$U10),"-")</f>
         <v>9.7999999999999997E-4</v>
       </c>
-      <c r="AA10" s="398">
+      <c r="AA10" s="398" t="e">
         <f t="shared" si="3"/>
-        <v>1.2199999722923519E-4</v>
-      </c>
-      <c r="AB10" s="397">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB10" s="397" t="e">
         <f>_xll.qlIndexFixing($X10,$S10,TRUE,$Z10)</f>
-        <v>1.1019999972292352E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC10" s="396">
         <f t="shared" si="4"/>
-        <v>1.2199999722923519E-4</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="385"/>
       <c r="AE10" s="377"/>
@@ -23550,25 +23550,25 @@
         <f t="shared" si="5"/>
         <v>Euribor2M#0000</v>
       </c>
-      <c r="Y11" s="398">
+      <c r="Y11" s="398" t="e">
         <f>_xll.qlIndexFixing($X11,$S11,TRUE,$U11)</f>
-        <v>1.0700613721744848E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z11" s="398">
         <f>IF($V11,_xll.qlIndexFixing($X11,$S11,FALSE,$U11),"-")</f>
         <v>1.58E-3</v>
       </c>
-      <c r="AA11" s="398">
+      <c r="AA11" s="398" t="e">
         <f t="shared" si="3"/>
-        <v>-5.0993862782551524E-4</v>
-      </c>
-      <c r="AB11" s="397">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB11" s="397" t="e">
         <f>_xll.qlIndexFixing($X11,$S11,TRUE,$Z11)</f>
-        <v>1.0700613721744848E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC11" s="396">
         <f t="shared" si="4"/>
-        <v>5.0993862782551524E-4</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="385"/>
       <c r="AE11" s="377"/>
@@ -23728,7 +23728,7 @@
       </c>
       <c r="Y13" s="398">
         <f>_xll.qlIndexFixing($X13,$S13,TRUE,$U13)</f>
-        <v>3.0689043305214174E-3</v>
+        <v>2.9750411848289658E-3</v>
       </c>
       <c r="Z13" s="398">
         <f>IF($V13,_xll.qlIndexFixing($X13,$S13,FALSE,$U13),"-")</f>
@@ -23736,15 +23736,15 @@
       </c>
       <c r="AA13" s="398">
         <f t="shared" si="3"/>
-        <v>8.9043305214176437E-6</v>
+        <v>-8.4958815171033968E-5</v>
       </c>
       <c r="AB13" s="397">
         <f>_xll.qlIndexFixing($X13,$S13,TRUE,$Z13)</f>
-        <v>3.0689043305214174E-3</v>
+        <v>2.9750411848289658E-3</v>
       </c>
       <c r="AC13" s="396">
         <f t="shared" si="4"/>
-        <v>8.9043305214176437E-6</v>
+        <v>8.4958815171033968E-5</v>
       </c>
       <c r="AD13" s="385"/>
       <c r="AE13" s="377"/>
@@ -23812,7 +23812,7 @@
       </c>
       <c r="Y14" s="398">
         <f>_xll.qlIndexFixing($X14,$S14,TRUE,$U14)</f>
-        <v>3.0449822483027754E-3</v>
+        <v>2.9410412564558506E-3</v>
       </c>
       <c r="Z14" s="398">
         <f>IF($V14,_xll.qlIndexFixing($X14,$S14,FALSE,$U14),"-")</f>
@@ -23820,15 +23820,15 @@
       </c>
       <c r="AA14" s="398">
         <f t="shared" si="3"/>
-        <v>-9.4501775169722512E-4</v>
+        <v>-1.0489587435441499E-3</v>
       </c>
       <c r="AB14" s="397">
         <f>_xll.qlIndexFixing($X14,$S14,TRUE,$Z14)</f>
-        <v>3.0449822483027754E-3</v>
+        <v>2.9410412564558506E-3</v>
       </c>
       <c r="AC14" s="396">
         <f t="shared" si="4"/>
-        <v>9.4501775169722512E-4</v>
+        <v>1.0489587435441499E-3</v>
       </c>
       <c r="AD14" s="385"/>
       <c r="AE14" s="377"/>
@@ -23894,25 +23894,25 @@
         <f t="shared" si="5"/>
         <v>Euribor1Y#0000</v>
       </c>
-      <c r="Y15" s="388">
+      <c r="Y15" s="388" t="e">
         <f>_xll.qlIndexFixing($X15,$S15,TRUE,$U15)</f>
-        <v>4.8359917352124747E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z15" s="388">
         <f>IF($V15,_xll.qlIndexFixing($X15,$S15,FALSE,$U15),"-")</f>
         <v>4.8900000000000002E-3</v>
       </c>
-      <c r="AA15" s="388">
+      <c r="AA15" s="388" t="e">
         <f t="shared" si="3"/>
-        <v>-5.4008264787525594E-5</v>
-      </c>
-      <c r="AB15" s="387">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB15" s="387" t="e">
         <f>_xll.qlIndexFixing($X15,$S15,TRUE,$Z15)</f>
-        <v>4.8359917352124747E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC15" s="386">
         <f t="shared" si="4"/>
-        <v>5.4008264787525594E-5</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="385"/>
       <c r="AE15" s="377"/>
@@ -27340,7 +27340,7 @@
       <c r="R4" s="170"/>
       <c r="S4" s="246" t="str">
         <f>_xll.RData(S5:S42,T4:U4,,ReutersRtMode,,T5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
       </c>
       <c r="T4" s="276" t="s">
         <v>191</v>
@@ -30423,7 +30423,7 @@
       <c r="R4" s="170"/>
       <c r="S4" s="246" t="str">
         <f>_xll.RData(S5:S42,T4:U4,,ReutersRtMode,,T5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
       </c>
       <c r="T4" s="276" t="s">
         <v>191</v>
@@ -30592,26 +30592,26 @@
         <v>EUR3E6E1Y=ICAP</v>
       </c>
       <c r="T6" s="340">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="U6" s="340">
-        <v>11.05</v>
+        <v>11</v>
       </c>
       <c r="V6" s="340">
         <f>_xll.qlMidSafe(T6,U6)</f>
-        <v>10.55</v>
+        <v>10.5</v>
       </c>
       <c r="W6" s="439"/>
       <c r="X6" s="339">
-        <v>10.55</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" s="216"/>
       <c r="Z6" s="427">
-        <v>10.55</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F6,ROUND(Z6/10000,6),Trigger)</f>
-        <v>-1.5000000000000039E-5</v>
+        <v>-2.0000000000000052E-5</v>
       </c>
       <c r="AB6" s="193"/>
       <c r="AC6" s="17"/>
@@ -30630,7 +30630,7 @@
       </c>
       <c r="AH6" s="338">
         <f>((Swap6M!AB6-Swap3M!AB6)*100-Z6)/10000</f>
-        <v>-4.9999999999997158E-6</v>
+        <v>-1.7763568394002505E-19</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -30804,7 +30804,7 @@
       </c>
       <c r="AH8" s="338">
         <f>((Swap6M!AB8-Swap3M!AB8)*100-Z8)/10000</f>
-        <v>9.9999999999997874E-6</v>
+        <v>-1.7763568394002505E-19</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -30949,26 +30949,26 @@
         <v>EUR3E6E2Y=ICAP</v>
       </c>
       <c r="T10" s="340">
-        <v>11</v>
+        <v>10.950000000000001</v>
       </c>
       <c r="U10" s="340">
-        <v>12</v>
+        <v>11.950000000000001</v>
       </c>
       <c r="V10" s="340">
         <f>_xll.qlMidSafe(T10,U10)</f>
-        <v>11.5</v>
+        <v>11.450000000000001</v>
       </c>
       <c r="W10" s="439"/>
       <c r="X10" s="339">
-        <v>11.5</v>
+        <v>11.450000000000001</v>
       </c>
       <c r="Y10" s="216"/>
       <c r="Z10" s="427">
-        <v>11.5</v>
+        <v>11.450000000000001</v>
       </c>
       <c r="AA10" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F10,ROUND(Z10/10000,6),Trigger)</f>
-        <v>3.0000000000000079E-5</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="AB10" s="193"/>
       <c r="AC10" s="17"/>
@@ -30981,7 +30981,7 @@
       </c>
       <c r="AH10" s="338">
         <f>((Swap6M!AB10-Swap3M!AB10)*100-Z10)/10000</f>
-        <v>-3.5527136788005011E-19</v>
+        <v>4.9999999999995379E-6</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -31584,7 +31584,7 @@
       </c>
       <c r="AH17" s="338">
         <f>((Swap6M!AB17-Swap3M!AB17)*100-Z17)/10000</f>
-        <v>-5.0000000000000707E-6</v>
+        <v>-5.0000000000022027E-6</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
@@ -31665,7 +31665,7 @@
       </c>
       <c r="AH18" s="338">
         <f>((Swap6M!AB18-Swap3M!AB18)*100-Z18)/10000</f>
-        <v>-5.0000000000011371E-6</v>
+        <v>-4.9999999999990051E-6</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -31746,7 +31746,7 @@
       </c>
       <c r="AH19" s="338">
         <f>((Swap6M!AB19-Swap3M!AB19)*100-Z19)/10000</f>
-        <v>-1.7763568394002505E-19</v>
+        <v>-2.3092638912203255E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -32475,7 +32475,7 @@
       </c>
       <c r="AH28" s="338">
         <f>((Swap6M!AB28-Swap3M!AB28)*100-Z28)/10000</f>
-        <v>-5.0000000000016699E-6</v>
+        <v>-4.9999999999993609E-6</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
@@ -32880,7 +32880,7 @@
       </c>
       <c r="AH33" s="338">
         <f>((Swap6M!AB33-Swap3M!AB33)*100-Z33)/10000</f>
-        <v>-5.0000000000005154E-6</v>
+        <v>-4.9999999999960744E-6</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
@@ -33285,7 +33285,7 @@
       </c>
       <c r="AH38" s="338">
         <f>((Swap6M!AB38-Swap3M!AB38)*100-Z38)/10000</f>
-        <v>-4.999999999999449E-6</v>
+        <v>-5.0000000000016699E-6</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.2">
@@ -33528,7 +33528,7 @@
       </c>
       <c r="AH41" s="338">
         <f>((Swap6M!AB41-Swap3M!AB41)*100-Z41)/10000</f>
-        <v>1.5099033134902128E-18</v>
+        <v>-2.9309887850104133E-18</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.2">
@@ -33609,7 +33609,7 @@
       </c>
       <c r="AH42" s="338">
         <f>((Swap6M!AB42-Swap3M!AB42)*100-Z42)/10000</f>
-        <v>-2.9309887850104133E-18</v>
+        <v>1.5099033134902128E-18</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -33764,7 +33764,7 @@
       <c r="Z3" s="113"/>
       <c r="AA3" s="247">
         <f>_xll.ohTrigger(AA5:AA42)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="193"/>
       <c r="AC3" s="17"/>
@@ -33799,7 +33799,7 @@
       <c r="R4" s="170"/>
       <c r="S4" s="246" t="str">
         <f>_xll.RData(S5:S42,T4:U4,,ReutersRtMode,,T5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
       </c>
       <c r="T4" s="276" t="s">
         <v>191</v>
@@ -33956,26 +33956,26 @@
         <v>EUR6E12E1Y=ICAP</v>
       </c>
       <c r="T6" s="340">
-        <v>18.900000000000002</v>
+        <v>18.8</v>
       </c>
       <c r="U6" s="340">
         <v>0</v>
       </c>
       <c r="V6" s="340">
         <f>_xll.qlMidEquivalent(T6,U6)</f>
-        <v>18.900000000000002</v>
+        <v>18.8</v>
       </c>
       <c r="W6" s="439"/>
       <c r="X6" s="339">
-        <v>18.900000000000002</v>
+        <v>18.8</v>
       </c>
       <c r="Y6" s="216"/>
       <c r="Z6" s="427">
-        <v>18.900000000000002</v>
+        <v>18.8</v>
       </c>
       <c r="AA6" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F6,ROUND(Z6/10000,6),Trigger)</f>
-        <v>1.0000000000000026E-5</v>
+        <v>-1.1000000000000007E-4</v>
       </c>
       <c r="AB6" s="193"/>
       <c r="AC6" s="17"/>
@@ -34300,7 +34300,7 @@
       </c>
       <c r="AA10" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F10,ROUND(Z10/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.2999999999999991E-4</v>
       </c>
       <c r="AB10" s="193"/>
       <c r="AC10" s="17"/>
@@ -34363,26 +34363,26 @@
         <v>EUR6E12E3Y=ICAP</v>
       </c>
       <c r="T11" s="340">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="U11" s="340">
         <v>0</v>
       </c>
       <c r="V11" s="340">
         <f>_xll.qlMidEquivalent(T11,U11)</f>
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="W11" s="439"/>
       <c r="X11" s="339">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="216"/>
       <c r="Z11" s="427">
-        <v>17.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="AA11" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F11,ROUND(Z11/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.5999999999999999E-4</v>
       </c>
       <c r="AB11" s="193"/>
       <c r="AC11" s="17"/>
@@ -34464,7 +34464,7 @@
       </c>
       <c r="AA12" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F12,ROUND(Z12/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.5999999999999999E-4</v>
       </c>
       <c r="AB12" s="193"/>
       <c r="AC12" s="17"/>
@@ -34546,7 +34546,7 @@
       </c>
       <c r="AA13" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F13,ROUND(Z13/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="AB13" s="193"/>
       <c r="AC13" s="17"/>
@@ -34628,7 +34628,7 @@
       </c>
       <c r="AA14" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F14,ROUND(Z14/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="AB14" s="193"/>
       <c r="AC14" s="17"/>
@@ -34701,7 +34701,7 @@
       </c>
       <c r="AA15" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F15,ROUND(Z15/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.8000000000000004E-4</v>
       </c>
       <c r="AB15" s="193"/>
       <c r="AC15" s="17"/>
@@ -34774,7 +34774,7 @@
       </c>
       <c r="AA16" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F16,ROUND(Z16/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.5999999999999999E-4</v>
       </c>
       <c r="AB16" s="193"/>
       <c r="AC16" s="17"/>
@@ -34847,7 +34847,7 @@
       </c>
       <c r="AA17" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F17,ROUND(Z17/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.4999999999999996E-4</v>
       </c>
       <c r="AB17" s="193"/>
       <c r="AC17" s="17"/>
@@ -34920,7 +34920,7 @@
       </c>
       <c r="AA18" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F18,ROUND(Z18/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.3000000000000012E-4</v>
       </c>
       <c r="AB18" s="193"/>
       <c r="AC18" s="17"/>
@@ -34993,7 +34993,7 @@
       </c>
       <c r="AA19" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F19,ROUND(Z19/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.2999999999999991E-4</v>
       </c>
       <c r="AB19" s="193"/>
       <c r="AC19" s="17"/>
@@ -35066,7 +35066,7 @@
       </c>
       <c r="AA20" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F20,ROUND(Z20/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.3000000000000012E-4</v>
       </c>
       <c r="AB20" s="193"/>
       <c r="AC20" s="17"/>
@@ -35285,7 +35285,7 @@
       </c>
       <c r="AA23" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F23,ROUND(Z23/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>1.1000000000000007E-4</v>
       </c>
       <c r="AB23" s="193"/>
       <c r="AC23" s="17"/>
@@ -35650,7 +35650,7 @@
       </c>
       <c r="AA28" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F28,ROUND(Z28/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>7.9999999999999993E-5</v>
       </c>
       <c r="AB28" s="193"/>
       <c r="AC28" s="17"/>
@@ -36015,7 +36015,7 @@
       </c>
       <c r="AA33" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F33,ROUND(Z33/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>6.0000000000000049E-5</v>
       </c>
       <c r="AB33" s="193"/>
       <c r="AC33" s="17"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="AA38" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F38,ROUND(Z38/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>5.0000000000000023E-5</v>
       </c>
       <c r="AB38" s="193"/>
       <c r="AC38" s="17"/>
@@ -36526,7 +36526,7 @@
       </c>
       <c r="AA40" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F40,ROUND(Z40/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>2.999999999999997E-5</v>
       </c>
       <c r="AB40" s="193"/>
       <c r="AC40" s="17"/>
@@ -36599,7 +36599,7 @@
       </c>
       <c r="AA41" s="221">
         <f>_xll.qlSimpleQuoteSetValue(F41,ROUND(Z41/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>3.0000000000000079E-5</v>
       </c>
       <c r="AB41" s="193"/>
       <c r="AC41" s="17"/>
@@ -36672,7 +36672,7 @@
       </c>
       <c r="AA42" s="213">
         <f>_xll.qlSimpleQuoteSetValue(F42,ROUND(Z42/10000,6),Trigger)</f>
-        <v>0</v>
+        <v>2.0000000000000052E-5</v>
       </c>
       <c r="AB42" s="193"/>
       <c r="AC42" s="17"/>
@@ -36729,8 +36729,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -36842,7 +36842,7 @@
       <c r="I4" s="243"/>
       <c r="J4" s="246" t="str">
         <f>_xll.RData(J5:J22,K4:K4,,ReutersRtMode,,K5)</f>
-        <v>Updated at 11:40:47</v>
+        <v>Updated at 12:55:45</v>
       </c>
       <c r="K4" s="245" t="str">
         <f>VLOOKUP(Contributor,ContributorTable,5,FALSE)</f>
@@ -36904,20 +36904,20 @@
         <v>EUROND=CKCC</v>
       </c>
       <c r="K5" s="237">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="L5" s="216"/>
       <c r="M5" s="435">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="N5" s="216"/>
       <c r="O5" s="294">
         <f t="array" ref="O5:O22">QuoteLive</f>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="P5" s="233">
         <f>_xll.qlSimpleQuoteSetValue(D5,O5/100,Trigger)</f>
-        <v>2.2000000000000001E-3</v>
+        <v>1.9000000000000002E-3</v>
       </c>
       <c r="Q5" s="193"/>
       <c r="R5" s="17"/>
@@ -38005,7 +38005,7 @@
       <c r="V3" s="113"/>
       <c r="W3" s="247">
         <f>_xll.ohTrigger(W5:W23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X3" s="193"/>
       <c r="Y3" s="17"/>
@@ -38038,7 +38038,7 @@
       <c r="L4" s="170"/>
       <c r="M4" s="246" t="str">
         <f>_xll.RData(M5:M33,N4:Q4,,ReutersRtMode,,N5)</f>
-        <v>Updated at 11:41:21</v>
+        <v>Updated at 12:57:37</v>
       </c>
       <c r="N4" s="276" t="s">
         <v>191</v>
@@ -38320,10 +38320,10 @@
         <v>EUR2X5F=ICAP</v>
       </c>
       <c r="N8" s="262">
-        <v>0.182</v>
+        <v>0.183</v>
       </c>
       <c r="O8" s="262">
-        <v>0.23200000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="P8" s="261">
         <v>0</v>
@@ -38333,15 +38333,15 @@
       </c>
       <c r="R8" s="225">
         <f>_xll.qlMidSafe($N8,$O8)</f>
-        <v>0.20700000000000002</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="S8" s="216"/>
       <c r="T8" s="260">
-        <v>0.20700000000000002</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="U8" s="216"/>
       <c r="V8" s="287">
-        <v>0.20700000000000002</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="W8" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
@@ -38390,10 +38390,10 @@
         <v>EUR3X6F=ICAP</v>
       </c>
       <c r="N9" s="262">
-        <v>0.17799999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="O9" s="262">
-        <v>0.22800000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="P9" s="261">
         <v>0</v>
@@ -38403,15 +38403,15 @@
       </c>
       <c r="R9" s="225">
         <f>_xll.qlMidSafe($N9,$O9)</f>
-        <v>0.20300000000000001</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="S9" s="216"/>
       <c r="T9" s="260">
-        <v>0.20300000000000001</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="U9" s="216"/>
       <c r="V9" s="287">
-        <v>0.20300000000000001</v>
+        <v>0.20400000000000001</v>
       </c>
       <c r="W9" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
@@ -38460,10 +38460,10 @@
         <v>EUR4X7F=ICAP</v>
       </c>
       <c r="N10" s="262">
-        <v>0.17500000000000002</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="O10" s="262">
-        <v>0.22500000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="P10" s="261">
         <v>0</v>
@@ -38473,15 +38473,15 @@
       </c>
       <c r="R10" s="225">
         <f>_xll.qlMidSafe($N10,$O10)</f>
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="S10" s="216"/>
       <c r="T10" s="260">
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="U10" s="216"/>
       <c r="V10" s="287">
-        <v>0.2</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="W10" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
@@ -38530,10 +38530,10 @@
         <v>EUR5X8F=ICAP</v>
       </c>
       <c r="N11" s="262">
-        <v>0.17100000000000001</v>
+        <v>0.17200000000000001</v>
       </c>
       <c r="O11" s="262">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="P11" s="261">
         <v>0</v>
@@ -38543,15 +38543,15 @@
       </c>
       <c r="R11" s="225">
         <f>_xll.qlMidSafe($N11,$O11)</f>
-        <v>0.19600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="S11" s="216"/>
       <c r="T11" s="260">
-        <v>0.19600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="U11" s="216"/>
       <c r="V11" s="287">
-        <v>0.19600000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="W11" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
@@ -38812,10 +38812,10 @@
         <v>EUR1X7F=ICAP</v>
       </c>
       <c r="N15" s="262">
-        <v>0.28500000000000003</v>
+        <v>0.28600000000000003</v>
       </c>
       <c r="O15" s="262">
-        <v>0.33500000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="P15" s="261">
         <v>0</v>
@@ -38825,15 +38825,15 @@
       </c>
       <c r="R15" s="225">
         <f>_xll.qlMidSafe($N15,$O15)</f>
-        <v>0.31000000000000005</v>
+        <v>0.31100000000000005</v>
       </c>
       <c r="S15" s="216"/>
       <c r="T15" s="260">
-        <v>0.31000000000000005</v>
+        <v>0.31100000000000005</v>
       </c>
       <c r="U15" s="216"/>
       <c r="V15" s="287">
-        <v>0.31000000000000005</v>
+        <v>0.31100000000000005</v>
       </c>
       <c r="W15" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E15,V15/100,Trigger)</f>
@@ -38884,10 +38884,10 @@
         <v>EUR2X8F=ICAP</v>
       </c>
       <c r="N16" s="262">
-        <v>0.28100000000000003</v>
+        <v>0.28200000000000003</v>
       </c>
       <c r="O16" s="262">
-        <v>0.33100000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="P16" s="261">
         <v>0</v>
@@ -38897,15 +38897,15 @@
       </c>
       <c r="R16" s="225">
         <f>_xll.qlMidSafe($N16,$O16)</f>
-        <v>0.30600000000000005</v>
+        <v>0.30700000000000005</v>
       </c>
       <c r="S16" s="216"/>
       <c r="T16" s="260">
-        <v>0.30600000000000005</v>
+        <v>0.30700000000000005</v>
       </c>
       <c r="U16" s="216"/>
       <c r="V16" s="287">
-        <v>0.30600000000000005</v>
+        <v>0.30700000000000005</v>
       </c>
       <c r="W16" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
@@ -38956,10 +38956,10 @@
         <v>EUR3X9F=ICAP</v>
       </c>
       <c r="N17" s="262">
-        <v>0.27900000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O17" s="262">
-        <v>0.32900000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="P17" s="261">
         <v>0</v>
@@ -38969,15 +38969,15 @@
       </c>
       <c r="R17" s="225">
         <f>_xll.qlMidSafe($N17,$O17)</f>
-        <v>0.30400000000000005</v>
+        <v>0.30500000000000005</v>
       </c>
       <c r="S17" s="216"/>
       <c r="T17" s="260">
-        <v>0.30400000000000005</v>
+        <v>0.30500000000000005</v>
       </c>
       <c r="U17" s="216"/>
       <c r="V17" s="287">
-        <v>0.30400000000000005</v>
+        <v>0.30500000000000005</v>
       </c>
       <c r="W17" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E17,V17/100,Trigger)</f>
@@ -39172,10 +39172,10 @@
         <v>EUR6X12F=ICAP</v>
       </c>
       <c r="N20" s="262">
-        <v>0.27400000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="O20" s="262">
-        <v>0.32400000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="P20" s="261">
         <v>0</v>
@@ -39185,15 +39185,15 @@
       </c>
       <c r="R20" s="225">
         <f>_xll.qlMidSafe($N20,$O20)</f>
-        <v>0.29900000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S20" s="216"/>
       <c r="T20" s="260">
-        <v>0.29900000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="U20" s="216"/>
       <c r="V20" s="287">
-        <v>0.29900000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="W20" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E20,V20/100,Trigger)</f>
@@ -39244,10 +39244,10 @@
         <v>EUR7X13F=ICAP</v>
       </c>
       <c r="N21" s="262">
-        <v>0.27400000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="O21" s="262">
-        <v>0.32400000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="P21" s="261">
         <v>0</v>
@@ -39257,15 +39257,15 @@
       </c>
       <c r="R21" s="225">
         <f>_xll.qlMidSafe($N21,$O21)</f>
-        <v>0.29900000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S21" s="216"/>
       <c r="T21" s="260">
-        <v>0.29900000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="U21" s="216"/>
       <c r="V21" s="287">
-        <v>0.29900000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="W21" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E21,V21/100,Trigger)</f>
@@ -39316,10 +39316,10 @@
         <v>EUR8X14F=ICAP</v>
       </c>
       <c r="N22" s="262">
-        <v>0.27700000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="O22" s="262">
-        <v>0.32700000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="P22" s="261">
         <v>0</v>
@@ -39329,15 +39329,15 @@
       </c>
       <c r="R22" s="225">
         <f>_xll.qlMidSafe($N22,$O22)</f>
-        <v>0.30200000000000005</v>
+        <v>0.30300000000000005</v>
       </c>
       <c r="S22" s="216"/>
       <c r="T22" s="260">
-        <v>0.30200000000000005</v>
+        <v>0.30300000000000005</v>
       </c>
       <c r="U22" s="216"/>
       <c r="V22" s="287">
-        <v>0.30200000000000005</v>
+        <v>0.30300000000000005</v>
       </c>
       <c r="W22" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E22,V22/100,Trigger)</f>
@@ -39388,10 +39388,10 @@
         <v>EUR9X15F=ICAP</v>
       </c>
       <c r="N23" s="262">
-        <v>0.28200000000000003</v>
+        <v>0.28300000000000003</v>
       </c>
       <c r="O23" s="262">
-        <v>0.33200000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="P23" s="261">
         <v>0</v>
@@ -39401,15 +39401,15 @@
       </c>
       <c r="R23" s="225">
         <f>_xll.qlMidSafe($N23,$O23)</f>
-        <v>0.30700000000000005</v>
+        <v>0.30800000000000005</v>
       </c>
       <c r="S23" s="216"/>
       <c r="T23" s="260">
-        <v>0.30700000000000005</v>
+        <v>0.30800000000000005</v>
       </c>
       <c r="U23" s="216"/>
       <c r="V23" s="287">
-        <v>0.30700000000000005</v>
+        <v>0.30800000000000005</v>
       </c>
       <c r="W23" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E23,V23/100,Trigger)</f>
@@ -39460,10 +39460,10 @@
         <v>EUR10X16F=ICAP</v>
       </c>
       <c r="N24" s="262">
-        <v>0.28700000000000003</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="O24" s="262">
-        <v>0.33700000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="P24" s="261">
         <v>0</v>
@@ -39473,15 +39473,15 @@
       </c>
       <c r="R24" s="225">
         <f>_xll.qlMidSafe($N24,$O24)</f>
-        <v>0.31200000000000006</v>
+        <v>0.31300000000000006</v>
       </c>
       <c r="S24" s="216"/>
       <c r="T24" s="260">
-        <v>0.31200000000000006</v>
+        <v>0.31300000000000006</v>
       </c>
       <c r="U24" s="216"/>
       <c r="V24" s="287">
-        <v>0.31200000000000006</v>
+        <v>0.31300000000000006</v>
       </c>
       <c r="W24" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E24,V24/100,Trigger)</f>
@@ -39532,10 +39532,10 @@
         <v>EUR11X17F=ICAP</v>
       </c>
       <c r="N25" s="262">
-        <v>0.29499999999999998</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="O25" s="262">
-        <v>0.34500000000000003</v>
+        <v>0.34700000000000003</v>
       </c>
       <c r="P25" s="261">
         <v>0</v>
@@ -39545,15 +39545,15 @@
       </c>
       <c r="R25" s="225">
         <f>_xll.qlMidSafe($N25,$O25)</f>
-        <v>0.32</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="S25" s="216"/>
       <c r="T25" s="260">
-        <v>0.32</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="U25" s="216"/>
       <c r="V25" s="287">
-        <v>0.32</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="W25" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E25,V25/100,Trigger)</f>
@@ -39604,10 +39604,10 @@
         <v>EUR12X18F=ICAP</v>
       </c>
       <c r="N26" s="262">
-        <v>0.30399999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="O26" s="262">
-        <v>0.35399999999999998</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="P26" s="261">
         <v>0</v>
@@ -39617,15 +39617,15 @@
       </c>
       <c r="R26" s="225">
         <f>_xll.qlMidSafe($N26,$O26)</f>
-        <v>0.32899999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="S26" s="216"/>
       <c r="T26" s="260">
-        <v>0.32899999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="U26" s="216"/>
       <c r="V26" s="287">
-        <v>0.32899999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="W26" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E26,V26/100,Trigger)</f>
@@ -39676,10 +39676,10 @@
         <v>EUR13X19F=ICAP</v>
       </c>
       <c r="N27" s="262">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="O27" s="262">
-        <v>0.36199999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="P27" s="261">
         <v>0</v>
@@ -39689,15 +39689,15 @@
       </c>
       <c r="R27" s="225">
         <f>_xll.qlMidSafe($N27,$O27)</f>
-        <v>0.33699999999999997</v>
+        <v>0.33799999999999997</v>
       </c>
       <c r="S27" s="216"/>
       <c r="T27" s="260">
-        <v>0.33699999999999997</v>
+        <v>0.33799999999999997</v>
       </c>
       <c r="U27" s="216"/>
       <c r="V27" s="287">
-        <v>0.33699999999999997</v>
+        <v>0.33799999999999997</v>
       </c>
       <c r="W27" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E27,V27/100,Trigger)</f>
@@ -39748,10 +39748,10 @@
         <v>EUR14X20F=ICAP</v>
       </c>
       <c r="N28" s="262">
-        <v>0.32300000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="O28" s="262">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="P28" s="261">
         <v>0</v>
@@ -39761,15 +39761,15 @@
       </c>
       <c r="R28" s="225">
         <f>_xll.qlMidSafe($N28,$O28)</f>
-        <v>0.34799999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="S28" s="216"/>
       <c r="T28" s="260">
-        <v>0.34799999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="U28" s="216"/>
       <c r="V28" s="287">
-        <v>0.34799999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="W28" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E28,V28/100,Trigger)</f>
@@ -39820,10 +39820,10 @@
         <v>EUR15X21F=ICAP</v>
       </c>
       <c r="N29" s="262">
-        <v>0.33400000000000002</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="O29" s="262">
-        <v>0.38400000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="P29" s="261">
         <v>0</v>
@@ -39833,15 +39833,15 @@
       </c>
       <c r="R29" s="225">
         <f>_xll.qlMidSafe($N29,$O29)</f>
-        <v>0.35899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="S29" s="216"/>
       <c r="T29" s="260">
-        <v>0.35899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="U29" s="216"/>
       <c r="V29" s="287">
-        <v>0.35899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="W29" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E29,V29/100,Trigger)</f>
@@ -39892,10 +39892,10 @@
         <v>EUR16X22F=ICAP</v>
       </c>
       <c r="N30" s="262">
-        <v>0.34600000000000003</v>
+        <v>0.34700000000000003</v>
       </c>
       <c r="O30" s="262">
-        <v>0.39600000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="P30" s="261">
         <v>0</v>
@@ -39905,15 +39905,15 @@
       </c>
       <c r="R30" s="225">
         <f>_xll.qlMidSafe($N30,$O30)</f>
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="S30" s="216"/>
       <c r="T30" s="260">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="U30" s="216"/>
       <c r="V30" s="287">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="W30" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E30,V30/100,Trigger)</f>
@@ -39964,10 +39964,10 @@
         <v>EUR17X23F=ICAP</v>
       </c>
       <c r="N31" s="262">
-        <v>0.35699999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="O31" s="262">
-        <v>0.40700000000000003</v>
+        <v>0.40800000000000003</v>
       </c>
       <c r="P31" s="261">
         <v>0</v>
@@ -39977,7 +39977,7 @@
       </c>
       <c r="R31" s="225">
         <f>_xll.qlMidSafe($N31,$O31)</f>
-        <v>0.38200000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="S31" s="216"/>
       <c r="T31" s="260">
@@ -39985,7 +39985,7 @@
       </c>
       <c r="U31" s="216"/>
       <c r="V31" s="287">
-        <v>0.38200000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="W31" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E31,V31/100,Trigger)</f>
@@ -40036,10 +40036,10 @@
         <v>EUR18X24F=ICAP</v>
       </c>
       <c r="N32" s="262">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O32" s="262">
-        <v>0.42199999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="P32" s="261">
         <v>0</v>
@@ -40049,15 +40049,15 @@
       </c>
       <c r="R32" s="225">
         <f>_xll.qlMidSafe($N32,$O32)</f>
-        <v>0.39700000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="S32" s="216"/>
       <c r="T32" s="260">
-        <v>0.39700000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="U32" s="216"/>
       <c r="V32" s="287">
-        <v>0.39700000000000002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="W32" s="221">
         <f>_xll.qlSimpleQuoteSetValue(E32,V32/100,Trigger)</f>
@@ -40107,10 +40107,10 @@
         <v>EUR12X24F=ICAP</v>
       </c>
       <c r="N33" s="257">
-        <v>0.50800000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="O33" s="257">
-        <v>0.55800000000000005</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="P33" s="256">
         <v>0</v>
@@ -40120,7 +40120,7 @@
       </c>
       <c r="R33" s="255">
         <f>_xll.qlMidSafe($N33,$O33)</f>
-        <v>0.53300000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="S33" s="216"/>
       <c r="T33" s="254">
@@ -40128,11 +40128,11 @@
       </c>
       <c r="U33" s="216"/>
       <c r="V33" s="426">
-        <v>0.53300000000000003</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="W33" s="424">
         <f>_xll.qlSimpleQuoteSetValue(E35,V33/100,Trigger)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="X33" s="193"/>
       <c r="Y33" s="17"/>
@@ -40416,7 +40416,7 @@
       </c>
       <c r="O5" s="246" t="str">
         <f>_xll.RData(O6:O17,P5:T5,,ReutersRtMode,,P6)</f>
-        <v>Updated at 11:40:46</v>
+        <v>Updated at 12:55:45</v>
       </c>
       <c r="P5" s="276" t="s">
         <v>195</v>
@@ -44461,7 +44461,7 @@
       </c>
       <c r="O6" s="308" t="str">
         <f>_xll.RData(O7:O48,P6:T6,,ReutersRtMode,,P7)</f>
-        <v>Updated at 11:41:31</v>
+        <v>Updated at 12:58:18</v>
       </c>
       <c r="P6" s="305" t="s">
         <v>195</v>
@@ -45355,10 +45355,10 @@
         <v>42079</v>
       </c>
       <c r="Q14" s="222">
+        <v>99.805000000000007</v>
+      </c>
+      <c r="R14" s="222">
         <v>99.81</v>
-      </c>
-      <c r="R14" s="222">
-        <v>99.814999999999998</v>
       </c>
       <c r="S14" s="222">
         <v>99.81</v>
@@ -45368,15 +45368,15 @@
       </c>
       <c r="U14" s="225">
         <f>_xll.qlMidSafe($Q14,$R14)</f>
-        <v>99.8125</v>
+        <v>99.807500000000005</v>
       </c>
       <c r="V14" s="216"/>
       <c r="W14" s="288">
-        <v>99.8125</v>
+        <v>99.807500000000005</v>
       </c>
       <c r="X14" s="216"/>
       <c r="Y14" s="287">
-        <v>99.8125</v>
+        <v>99.807500000000005</v>
       </c>
       <c r="Z14" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14,Trigger)</f>
@@ -45685,7 +45685,7 @@
         <v>99.81</v>
       </c>
       <c r="S17" s="222">
-        <v>99.805000000000007</v>
+        <v>99.81</v>
       </c>
       <c r="T17" s="222">
         <v>99.805000000000007</v>
@@ -46009,7 +46009,7 @@
         <v>99.765000000000001</v>
       </c>
       <c r="S20" s="222">
-        <v>99.765000000000001</v>
+        <v>99.76</v>
       </c>
       <c r="T20" s="222">
         <v>99.76</v>
@@ -46114,29 +46114,29 @@
         <v>99.725000000000009</v>
       </c>
       <c r="R21" s="222">
-        <v>99.734999999999999</v>
+        <v>99.73</v>
       </c>
       <c r="S21" s="222">
-        <v>99.73</v>
+        <v>99.725000000000009</v>
       </c>
       <c r="T21" s="222">
         <v>99.725000000000009</v>
       </c>
       <c r="U21" s="225">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>99.73</v>
+        <v>99.727500000000006</v>
       </c>
       <c r="V21" s="216"/>
       <c r="W21" s="288">
-        <v>99.732500000000002</v>
+        <v>99.727500000000006</v>
       </c>
       <c r="X21" s="216"/>
       <c r="Y21" s="287">
-        <v>99.73</v>
+        <v>99.727500000000006</v>
       </c>
       <c r="Z21" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>-2.4999999999977263E-3</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="43"/>
       <c r="AB21" s="17"/>
@@ -46145,7 +46145,7 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="253">
         <f t="shared" si="1"/>
-        <v>9.9999999999909054E-5</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH21" s="122"/>
       <c r="AI21" s="83">
@@ -46219,28 +46219,28 @@
         <v>42534</v>
       </c>
       <c r="Q22" s="222">
-        <v>99.69</v>
+        <v>99.685000000000002</v>
       </c>
       <c r="R22" s="222">
         <v>99.695000000000007</v>
       </c>
       <c r="S22" s="222">
-        <v>99.695000000000007</v>
+        <v>99.69</v>
       </c>
       <c r="T22" s="222">
         <v>99.69</v>
       </c>
       <c r="U22" s="225">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>99.692499999999995</v>
+        <v>99.69</v>
       </c>
       <c r="V22" s="216"/>
       <c r="W22" s="288">
-        <v>99.692499999999995</v>
+        <v>99.69</v>
       </c>
       <c r="X22" s="216"/>
       <c r="Y22" s="287">
-        <v>99.692499999999995</v>
+        <v>99.69</v>
       </c>
       <c r="Z22" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
@@ -46253,7 +46253,7 @@
       <c r="AE22" s="17"/>
       <c r="AF22" s="253">
         <f t="shared" si="1"/>
-        <v>5.0000000000238744E-5</v>
+        <v>1.0000000000019326E-4</v>
       </c>
       <c r="AH22" s="122"/>
       <c r="AI22" s="83">
@@ -46333,7 +46333,7 @@
         <v>99.644999999999996</v>
       </c>
       <c r="S23" s="222">
-        <v>99.644999999999996</v>
+        <v>99.64</v>
       </c>
       <c r="T23" s="222">
         <v>99.64</v>
@@ -46438,25 +46438,25 @@
         <v>99.585000000000008</v>
       </c>
       <c r="R24" s="222">
-        <v>99.594999999999999</v>
+        <v>99.59</v>
       </c>
       <c r="S24" s="222">
-        <v>99.59</v>
+        <v>99.585000000000008</v>
       </c>
       <c r="T24" s="222">
         <v>99.585000000000008</v>
       </c>
       <c r="U24" s="225">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>99.59</v>
+        <v>99.587500000000006</v>
       </c>
       <c r="V24" s="216"/>
       <c r="W24" s="288">
-        <v>99.59</v>
+        <v>99.587500000000006</v>
       </c>
       <c r="X24" s="216"/>
       <c r="Y24" s="287">
-        <v>99.59</v>
+        <v>99.587500000000006</v>
       </c>
       <c r="Z24" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
@@ -46469,7 +46469,7 @@
       <c r="AE24" s="17"/>
       <c r="AF24" s="253">
         <f t="shared" si="1"/>
-        <v>9.9999999999909054E-5</v>
+        <v>4.9999999999954527E-5</v>
       </c>
       <c r="AH24" s="122"/>
       <c r="AI24" s="83">
@@ -46543,10 +46543,10 @@
         <v>42807</v>
       </c>
       <c r="Q25" s="222">
+        <v>99.525000000000006</v>
+      </c>
+      <c r="R25" s="222">
         <v>99.53</v>
-      </c>
-      <c r="R25" s="222">
-        <v>99.534999999999997</v>
       </c>
       <c r="S25" s="222">
         <v>99.53</v>
@@ -46556,15 +46556,15 @@
       </c>
       <c r="U25" s="225">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
-        <v>99.532499999999999</v>
+        <v>99.527500000000003</v>
       </c>
       <c r="V25" s="216"/>
       <c r="W25" s="288">
-        <v>99.532499999999999</v>
+        <v>99.527500000000003</v>
       </c>
       <c r="X25" s="216"/>
       <c r="Y25" s="287">
-        <v>99.532499999999999</v>
+        <v>99.527500000000003</v>
       </c>
       <c r="Z25" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
@@ -46651,10 +46651,10 @@
         <v>42905</v>
       </c>
       <c r="Q26" s="222">
+        <v>99.45</v>
+      </c>
+      <c r="R26" s="222">
         <v>99.454999999999998</v>
-      </c>
-      <c r="R26" s="222">
-        <v>99.460000000000008</v>
       </c>
       <c r="S26" s="222">
         <v>99.454999999999998</v>
@@ -46664,15 +46664,15 @@
       </c>
       <c r="U26" s="225">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
-        <v>99.45750000000001</v>
+        <v>99.452500000000001</v>
       </c>
       <c r="V26" s="216"/>
       <c r="W26" s="288">
-        <v>99.45750000000001</v>
+        <v>99.452500000000001</v>
       </c>
       <c r="X26" s="216"/>
       <c r="Y26" s="287">
-        <v>99.45750000000001</v>
+        <v>99.452500000000001</v>
       </c>
       <c r="Z26" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F26,Y26,Trigger)</f>
@@ -46759,28 +46759,28 @@
         <v>42996</v>
       </c>
       <c r="Q27" s="222">
+        <v>99.37</v>
+      </c>
+      <c r="R27" s="222">
         <v>99.375</v>
       </c>
-      <c r="R27" s="222">
-        <v>99.38</v>
-      </c>
       <c r="S27" s="222">
-        <v>99.375</v>
+        <v>99.37</v>
       </c>
       <c r="T27" s="222">
         <v>99.37</v>
       </c>
       <c r="U27" s="225">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
-        <v>99.377499999999998</v>
+        <v>99.372500000000002</v>
       </c>
       <c r="V27" s="216"/>
       <c r="W27" s="288">
-        <v>99.377499999999998</v>
+        <v>99.372500000000002</v>
       </c>
       <c r="X27" s="216"/>
       <c r="Y27" s="287">
-        <v>99.377499999999998</v>
+        <v>99.372500000000002</v>
       </c>
       <c r="Z27" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F27,Y27,Trigger)</f>
@@ -46867,32 +46867,32 @@
         <v>43087</v>
       </c>
       <c r="Q28" s="222">
-        <v>99.29</v>
+        <v>99.28</v>
       </c>
       <c r="R28" s="222">
-        <v>99.295000000000002</v>
+        <v>99.284999999999997</v>
       </c>
       <c r="S28" s="222">
-        <v>99.29</v>
+        <v>99.284999999999997</v>
       </c>
       <c r="T28" s="222">
         <v>99.284999999999997</v>
       </c>
       <c r="U28" s="225">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
-        <v>99.292500000000004</v>
+        <v>99.282499999999999</v>
       </c>
       <c r="V28" s="216"/>
       <c r="W28" s="288">
-        <v>99.292500000000004</v>
+        <v>99.282499999999999</v>
       </c>
       <c r="X28" s="216"/>
       <c r="Y28" s="287">
-        <v>99.292500000000004</v>
+        <v>99.282499999999999</v>
       </c>
       <c r="Z28" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999977263E-3</v>
       </c>
       <c r="AA28" s="43"/>
       <c r="AB28" s="17"/>
@@ -46975,28 +46975,28 @@
         <v>43178</v>
       </c>
       <c r="Q29" s="222">
+        <v>99.19</v>
+      </c>
+      <c r="R29" s="222">
         <v>99.2</v>
       </c>
-      <c r="R29" s="222">
-        <v>99.210000000000008</v>
-      </c>
       <c r="S29" s="222">
-        <v>99.2</v>
+        <v>99.195000000000007</v>
       </c>
       <c r="T29" s="222">
         <v>99.195000000000007</v>
       </c>
       <c r="U29" s="225">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
-        <v>99.205000000000013</v>
+        <v>99.194999999999993</v>
       </c>
       <c r="V29" s="216"/>
       <c r="W29" s="288">
-        <v>99.205000000000013</v>
+        <v>99.194999999999993</v>
       </c>
       <c r="X29" s="216"/>
       <c r="Y29" s="287">
-        <v>99.205000000000013</v>
+        <v>99.194999999999993</v>
       </c>
       <c r="Z29" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F29,Y29,Trigger)</f>
@@ -47009,7 +47009,7 @@
       <c r="AE29" s="17"/>
       <c r="AF29" s="253">
         <f t="shared" si="1"/>
-        <v>9.9999999999909054E-5</v>
+        <v>1.0000000000019326E-4</v>
       </c>
       <c r="AH29" s="122"/>
       <c r="AI29" s="83">
@@ -47083,28 +47083,28 @@
         <v>43269</v>
       </c>
       <c r="Q30" s="222">
-        <v>99.11</v>
+        <v>99.094999999999999</v>
       </c>
       <c r="R30" s="222">
-        <v>99.115000000000009</v>
+        <v>99.105000000000004</v>
       </c>
       <c r="S30" s="222">
-        <v>99.105000000000004</v>
+        <v>99.100000000000009</v>
       </c>
       <c r="T30" s="222">
         <v>99.100000000000009</v>
       </c>
       <c r="U30" s="225">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
-        <v>99.112500000000011</v>
+        <v>99.1</v>
       </c>
       <c r="V30" s="216"/>
       <c r="W30" s="288">
-        <v>99.112500000000011</v>
+        <v>99.1</v>
       </c>
       <c r="X30" s="216"/>
       <c r="Y30" s="287">
-        <v>99.112500000000011</v>
+        <v>99.1</v>
       </c>
       <c r="Z30" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F30,Y30,Trigger)</f>
@@ -47117,7 +47117,7 @@
       <c r="AE30" s="17"/>
       <c r="AF30" s="253">
         <f t="shared" si="1"/>
-        <v>4.9999999999954527E-5</v>
+        <v>1.0000000000019326E-4</v>
       </c>
       <c r="AH30" s="122"/>
       <c r="AI30" s="83">
@@ -47191,28 +47191,28 @@
         <v>43360</v>
       </c>
       <c r="Q31" s="222">
+        <v>99.004999999999995</v>
+      </c>
+      <c r="R31" s="222">
+        <v>99.015000000000001</v>
+      </c>
+      <c r="S31" s="222">
         <v>99.02</v>
-      </c>
-      <c r="R31" s="222">
-        <v>99.03</v>
-      </c>
-      <c r="S31" s="222">
-        <v>99.01</v>
       </c>
       <c r="T31" s="222">
         <v>99.01</v>
       </c>
       <c r="U31" s="225">
         <f>_xll.qlMidSafe($Q31,$R31)</f>
-        <v>99.025000000000006</v>
+        <v>99.009999999999991</v>
       </c>
       <c r="V31" s="216"/>
       <c r="W31" s="288">
-        <v>99.025000000000006</v>
+        <v>99.009999999999991</v>
       </c>
       <c r="X31" s="216"/>
       <c r="Y31" s="287">
-        <v>99.025000000000006</v>
+        <v>99.009999999999991</v>
       </c>
       <c r="Z31" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F31,Y31,Trigger)</f>
@@ -47225,7 +47225,7 @@
       <c r="AE31" s="17"/>
       <c r="AF31" s="253">
         <f t="shared" si="1"/>
-        <v>9.9999999999909054E-5</v>
+        <v>1.0000000000019326E-4</v>
       </c>
       <c r="AH31" s="122"/>
       <c r="AI31" s="83">
@@ -47299,28 +47299,28 @@
         <v>43451</v>
       </c>
       <c r="Q32" s="222">
+        <v>98.915000000000006</v>
+      </c>
+      <c r="R32" s="222">
         <v>98.924999999999997</v>
       </c>
-      <c r="R32" s="222">
-        <v>98.94</v>
-      </c>
       <c r="S32" s="222">
-        <v>98.935000000000002</v>
+        <v>98.924999999999997</v>
       </c>
       <c r="T32" s="222">
         <v>98.915000000000006</v>
       </c>
       <c r="U32" s="225">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
-        <v>98.932500000000005</v>
+        <v>98.92</v>
       </c>
       <c r="V32" s="216"/>
       <c r="W32" s="288">
-        <v>98.932500000000005</v>
+        <v>98.92</v>
       </c>
       <c r="X32" s="216"/>
       <c r="Y32" s="287">
-        <v>98.932500000000005</v>
+        <v>98.92</v>
       </c>
       <c r="Z32" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F32,Y32,Trigger)</f>
@@ -47333,7 +47333,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="253">
         <f t="shared" si="1"/>
-        <v>1.4999999999986357E-4</v>
+        <v>9.9999999999909054E-5</v>
       </c>
       <c r="AH32" s="122"/>
       <c r="AI32" s="83">
@@ -47407,28 +47407,28 @@
         <v>43542</v>
       </c>
       <c r="Q33" s="222">
-        <v>98.835000000000008</v>
+        <v>98.825000000000003</v>
       </c>
       <c r="R33" s="222">
-        <v>98.855000000000004</v>
+        <v>98.84</v>
       </c>
       <c r="S33" s="222">
-        <v>98.83</v>
+        <v>98.84</v>
       </c>
       <c r="T33" s="222">
         <v>98.83</v>
       </c>
       <c r="U33" s="225">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
-        <v>98.844999999999999</v>
+        <v>98.83250000000001</v>
       </c>
       <c r="V33" s="216"/>
       <c r="W33" s="288">
-        <v>98.844999999999999</v>
+        <v>98.83250000000001</v>
       </c>
       <c r="X33" s="216"/>
       <c r="Y33" s="287">
-        <v>98.844999999999999</v>
+        <v>98.83250000000001</v>
       </c>
       <c r="Z33" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33,Trigger)</f>
@@ -47441,7 +47441,7 @@
       <c r="AE33" s="17"/>
       <c r="AF33" s="253">
         <f t="shared" si="1"/>
-        <v>2.0000000000010233E-4</v>
+        <v>1.4999999999986357E-4</v>
       </c>
       <c r="AH33" s="122"/>
       <c r="AI33" s="83">
@@ -47515,28 +47515,28 @@
         <v>43633</v>
       </c>
       <c r="Q34" s="222">
-        <v>98.740000000000009</v>
+        <v>98.725000000000009</v>
       </c>
       <c r="R34" s="222">
-        <v>98.765000000000001</v>
+        <v>98.75</v>
       </c>
       <c r="S34" s="222">
-        <v>0</v>
+        <v>98.734999999999999</v>
       </c>
       <c r="T34" s="222">
         <v>98.740000000000009</v>
       </c>
       <c r="U34" s="225">
         <f>_xll.qlMidSafe($Q34,$R34)</f>
-        <v>98.752499999999998</v>
+        <v>98.737500000000011</v>
       </c>
       <c r="V34" s="216"/>
       <c r="W34" s="288">
-        <v>98.752499999999998</v>
+        <v>98.737500000000011</v>
       </c>
       <c r="X34" s="216"/>
       <c r="Y34" s="287">
-        <v>98.752499999999998</v>
+        <v>98.737500000000011</v>
       </c>
       <c r="Z34" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F34,Y34,Trigger)</f>
@@ -47549,7 +47549,7 @@
       <c r="AE34" s="17"/>
       <c r="AF34" s="253">
         <f t="shared" si="1"/>
-        <v>2.5000000000005682E-4</v>
+        <v>2.4999999999977265E-4</v>
       </c>
       <c r="AH34" s="122"/>
       <c r="AI34" s="83">
@@ -47623,28 +47623,28 @@
         <v>43724</v>
       </c>
       <c r="Q35" s="222">
-        <v>98.64</v>
+        <v>98.635000000000005</v>
       </c>
       <c r="R35" s="222">
-        <v>98.674999999999997</v>
+        <v>98.655000000000001</v>
       </c>
       <c r="S35" s="222">
-        <v>0</v>
+        <v>98.644999999999996</v>
       </c>
       <c r="T35" s="222">
         <v>98.65</v>
       </c>
       <c r="U35" s="225">
         <f>_xll.qlMidSafe($Q35,$R35)</f>
-        <v>98.657499999999999</v>
+        <v>98.64500000000001</v>
       </c>
       <c r="V35" s="216"/>
       <c r="W35" s="288">
-        <v>98.657499999999999</v>
+        <v>98.64500000000001</v>
       </c>
       <c r="X35" s="216"/>
       <c r="Y35" s="287">
-        <v>98.657499999999999</v>
+        <v>98.64500000000001</v>
       </c>
       <c r="Z35" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F35,Y35,Trigger)</f>
@@ -47657,7 +47657,7 @@
       <c r="AE35" s="17"/>
       <c r="AF35" s="253">
         <f t="shared" si="1"/>
-        <v>3.499999999999659E-4</v>
+        <v>1.9999999999981811E-4</v>
       </c>
       <c r="AH35" s="122"/>
       <c r="AI35" s="83">
@@ -47731,10 +47731,10 @@
         <v>43815</v>
       </c>
       <c r="Q36" s="222">
-        <v>98.54</v>
+        <v>98.534999999999997</v>
       </c>
       <c r="R36" s="222">
-        <v>98.575000000000003</v>
+        <v>98.564999999999998</v>
       </c>
       <c r="S36" s="222">
         <v>0</v>
@@ -47744,15 +47744,15 @@
       </c>
       <c r="U36" s="225">
         <f>_xll.qlMidSafe($Q36,$R36)</f>
-        <v>98.557500000000005</v>
+        <v>98.55</v>
       </c>
       <c r="V36" s="216"/>
       <c r="W36" s="288">
-        <v>98.557500000000005</v>
+        <v>98.55</v>
       </c>
       <c r="X36" s="216"/>
       <c r="Y36" s="287">
-        <v>98.557500000000005</v>
+        <v>98.55</v>
       </c>
       <c r="Z36" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F36,Y36,Trigger)</f>
@@ -47765,7 +47765,7 @@
       <c r="AE36" s="17"/>
       <c r="AF36" s="253">
         <f t="shared" si="1"/>
-        <v>3.499999999999659E-4</v>
+        <v>3.0000000000001136E-4</v>
       </c>
       <c r="AH36" s="122"/>
       <c r="AI36" s="83">
@@ -47839,7 +47839,7 @@
         <v>43906</v>
       </c>
       <c r="Q37" s="222">
-        <v>98.44</v>
+        <v>98.42</v>
       </c>
       <c r="R37" s="222">
         <v>98.48</v>
@@ -47852,15 +47852,15 @@
       </c>
       <c r="U37" s="225">
         <f>_xll.qlMidSafe($Q37,$R37)</f>
-        <v>98.460000000000008</v>
+        <v>98.45</v>
       </c>
       <c r="V37" s="216"/>
       <c r="W37" s="288">
-        <v>98.460000000000008</v>
+        <v>98.45</v>
       </c>
       <c r="X37" s="216"/>
       <c r="Y37" s="287">
-        <v>98.460000000000008</v>
+        <v>98.45</v>
       </c>
       <c r="Z37" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F37,Y37,Trigger)</f>
@@ -47873,7 +47873,7 @@
       <c r="AE37" s="17"/>
       <c r="AF37" s="253">
         <f t="shared" si="1"/>
-        <v>3.9999999999992044E-4</v>
+        <v>6.0000000000002272E-4</v>
       </c>
       <c r="AH37" s="122"/>
       <c r="AI37" s="83">
@@ -47947,10 +47947,10 @@
         <v>43997</v>
       </c>
       <c r="Q38" s="222">
-        <v>98.355000000000004</v>
+        <v>98.305000000000007</v>
       </c>
       <c r="R38" s="222">
-        <v>98.394999999999996</v>
+        <v>98.405000000000001</v>
       </c>
       <c r="S38" s="222">
         <v>0</v>
@@ -47960,15 +47960,15 @@
       </c>
       <c r="U38" s="225">
         <f>_xll.qlMidSafe($Q38,$R38)</f>
-        <v>98.375</v>
+        <v>98.355000000000004</v>
       </c>
       <c r="V38" s="216"/>
       <c r="W38" s="288">
-        <v>98.375</v>
+        <v>98.355000000000004</v>
       </c>
       <c r="X38" s="216"/>
       <c r="Y38" s="287">
-        <v>98.375</v>
+        <v>98.355000000000004</v>
       </c>
       <c r="Z38" s="225">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38,Trigger)</f>
@@ -47981,7 +47981,7 @@
       <c r="AE38" s="17"/>
       <c r="AF38" s="253">
         <f t="shared" si="1"/>
-        <v>3.9999999999992044E-4</v>
+        <v>9.9999999999994321E-4</v>
       </c>
       <c r="AH38" s="122"/>
       <c r="AI38" s="83">
